--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3804487.426301589</v>
+        <v>3800105.513885423</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9964927.035287933</v>
+        <v>9964927.035287924</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>430763.782371722</v>
+        <v>430763.7823717227</v>
       </c>
     </row>
     <row r="9">
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>367.3380199825341</v>
+        <v>353.5759586385877</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>18.3768222575565</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>33.84234274505282</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>264.4995138557925</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>158.9430593111257</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>41.03250833502987</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>14.52687838733143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1135,22 +1135,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>370.8421169751072</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>141.7661665943791</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1189,19 +1189,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>9.345527881612698</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T11" t="n">
         <v>199.1970568374742</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9088959876452</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1536,7 +1536,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>89.97676987683019</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1854515484204</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>14.50591009326029</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9088959876452</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,7 +1703,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>64.44601915223836</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S16" t="n">
-        <v>172.5112693098274</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8432760127566</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H17" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045442</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T17" t="n">
         <v>199.1970568374742</v>
@@ -1940,7 +1940,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>89.5340822374514</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S19" t="n">
         <v>181.338488358459</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>76.04058667828356</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2089,13 +2089,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722607</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8432760127569</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H20" t="n">
         <v>283.5630920045443</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T20" t="n">
         <v>199.1970568374742</v>
@@ -2177,7 +2177,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2241,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>46.81108873965578</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5420528771669</v>
@@ -2259,7 +2259,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4819944627618</v>
+        <v>126.8501986697209</v>
       </c>
       <c r="U22" t="n">
         <v>286.1854515484204</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T23" t="n">
         <v>199.1970568374742</v>
@@ -2414,7 +2414,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H24" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
-        <v>140.4539897919539</v>
+        <v>64.44601915223836</v>
       </c>
       <c r="I25" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S25" t="n">
         <v>181.338488358459</v>
@@ -2532,13 +2532,13 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>41.60617040425794</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T26" t="n">
         <v>199.1970568374742</v>
@@ -2651,7 +2651,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H27" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>64.44601915223792</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S28" t="n">
         <v>181.338488358459</v>
@@ -2769,7 +2769,7 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>132.196729217715</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T29" t="n">
         <v>199.1970568374742</v>
@@ -2888,7 +2888,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H30" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>86.27179222793497</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>83.07736723265378</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5420528771669</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S31" t="n">
         <v>181.338488358459</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T32" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U32" t="n">
         <v>250.9088959876463</v>
@@ -3125,7 +3125,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H33" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3192,10 +3192,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H34" t="n">
-        <v>140.4539897919539</v>
+        <v>64.44601915223836</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>67.18075159108344</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S34" t="n">
-        <v>181.3384883584589</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T34" t="n">
         <v>217.4819944627618</v>
@@ -3246,7 +3246,7 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>99.66489037142844</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710064</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T35" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U35" t="n">
         <v>250.9088959876463</v>
@@ -3362,7 +3362,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H36" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>43.35999988698418</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>91.23885045891228</v>
       </c>
       <c r="G37" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.18075159108344</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S37" t="n">
-        <v>181.3384883584589</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T37" t="n">
         <v>217.4819944627618</v>
@@ -3483,7 +3483,7 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.61259060081882</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T38" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374736</v>
       </c>
       <c r="U38" t="n">
         <v>250.9088959876463</v>
@@ -3599,7 +3599,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H39" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>122.2570975777006</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>84.56702400647404</v>
       </c>
       <c r="H40" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>67.18075159108344</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T40" t="n">
         <v>217.4819944627618</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T41" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U41" t="n">
         <v>250.9088959876463</v>
@@ -3836,7 +3836,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>5.313812950988587</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.3384883584589</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T43" t="n">
         <v>217.4819944627618</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>75.28299328487333</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>84.61259060081956</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T44" t="n">
         <v>199.1970568374742</v>
@@ -4073,7 +4073,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>84.02406320561454</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4143,16 +4143,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>3.132302579345401</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T46" t="n">
-        <v>94.94382810780819</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U46" t="n">
         <v>286.1854515484204</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>919.5755868835438</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>919.5755868835438</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D2" t="n">
-        <v>919.5755868835438</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="E2" t="n">
-        <v>919.5755868835438</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4375,7 +4375,7 @@
         <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>919.5755868835438</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
@@ -4412,22 +4412,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4518,22 +4518,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>693.9447996154718</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>693.9447996154718</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>693.9447996154718</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>404.5276295785111</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>404.5276295785111</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>404.5276295785111</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1626.717708340416</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="C5" t="n">
-        <v>1257.755191400004</v>
+        <v>785.9213106858008</v>
       </c>
       <c r="D5" t="n">
-        <v>899.4894927932537</v>
+        <v>785.9213106858008</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>785.9213106858008</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X5" t="n">
-        <v>2013.317548404538</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y5" t="n">
-        <v>2013.317548404538</v>
+        <v>1154.883827626212</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>544.5191867458693</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D7" t="n">
-        <v>394.4025473335336</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="E7" t="n">
-        <v>246.4894537511405</v>
+        <v>411.2797076961342</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>264.3897601982238</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>95.38995993655624</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>95.38995993655624</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>95.38995993655624</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>923.1150787952338</v>
+        <v>1470.569074795015</v>
       </c>
       <c r="C8" t="n">
-        <v>923.1150787952338</v>
+        <v>1101.606557854603</v>
       </c>
       <c r="D8" t="n">
-        <v>923.1150787952338</v>
+        <v>743.3408592478529</v>
       </c>
       <c r="E8" t="n">
-        <v>923.1150787952338</v>
+        <v>357.5526066496087</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>350.6071059004052</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4837,19 +4837,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859356</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X8" t="n">
-        <v>1309.714918859356</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y8" t="n">
-        <v>1309.714918859356</v>
+        <v>1857.168914859137</v>
       </c>
     </row>
     <row r="9">
@@ -4883,19 +4883,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>249.7161456655658</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>249.7161456655658</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>718.6890570532901</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>718.6890570532901</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>504.4006338714527</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>504.4006338714527</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>504.4006338714527</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>249.7161456655658</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>249.7161456655658</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>249.7161456655658</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>249.7161456655658</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C11" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D11" t="n">
         <v>1591.032978284208</v>
@@ -5029,10 +5029,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F11" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G11" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H11" t="n">
         <v>93.84834815160703</v>
@@ -5041,28 +5041,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J11" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K11" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L11" t="n">
-        <v>1462.494387944177</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M11" t="n">
-        <v>2183.498949883215</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N11" t="n">
-        <v>2920.783927800321</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O11" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P11" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q11" t="n">
-        <v>4515.534099052815</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R11" t="n">
         <v>4692.417407580351</v>
@@ -5074,19 +5074,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U11" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V11" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W11" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X11" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J12" t="n">
-        <v>241.496329903453</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K12" t="n">
-        <v>572.0050724668117</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="L12" t="n">
-        <v>1062.737405310563</v>
+        <v>732.2286627472042</v>
       </c>
       <c r="M12" t="n">
-        <v>1062.737405310563</v>
+        <v>1324.247016999332</v>
       </c>
       <c r="N12" t="n">
-        <v>1356.791087284249</v>
+        <v>1946.342980398668</v>
       </c>
       <c r="O12" t="n">
-        <v>1903.667562284443</v>
+        <v>2493.219455398862</v>
       </c>
       <c r="P12" t="n">
-        <v>2323.251080710519</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.812354695766</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.5089153771639</v>
+        <v>965.8040325357866</v>
       </c>
       <c r="C13" t="n">
-        <v>782.572732449257</v>
+        <v>796.8678496078797</v>
       </c>
       <c r="D13" t="n">
-        <v>632.4560930369213</v>
+        <v>646.751210195544</v>
       </c>
       <c r="E13" t="n">
-        <v>632.4560930369213</v>
+        <v>498.8381166131509</v>
       </c>
       <c r="F13" t="n">
-        <v>485.5661455390109</v>
+        <v>351.9481691152405</v>
       </c>
       <c r="G13" t="n">
-        <v>318.3519507135898</v>
+        <v>184.7339742898193</v>
       </c>
       <c r="H13" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I13" t="n">
         <v>93.84834815160703</v>
@@ -5223,28 +5223,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R13" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S13" t="n">
-        <v>2178.382964033126</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="T13" t="n">
-        <v>1958.704181747508</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="U13" t="n">
-        <v>1669.627968062235</v>
+        <v>2140.336285650421</v>
       </c>
       <c r="V13" t="n">
-        <v>1414.943479856348</v>
+        <v>1885.651797444534</v>
       </c>
       <c r="W13" t="n">
-        <v>1400.291045418711</v>
+        <v>1596.234627407574</v>
       </c>
       <c r="X13" t="n">
-        <v>1172.301494520694</v>
+        <v>1368.245076509556</v>
       </c>
       <c r="Y13" t="n">
-        <v>951.5089153771639</v>
+        <v>1147.452497366026</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C14" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D14" t="n">
         <v>1591.032978284208</v>
@@ -5266,7 +5266,7 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F14" t="n">
-        <v>794.2588208963563</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G14" t="n">
         <v>380.2757138127629</v>
@@ -5278,52 +5278,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J14" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K14" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L14" t="n">
-        <v>1462.494387944177</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M14" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N14" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O14" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P14" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q14" t="n">
-        <v>4515.534099052815</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R14" t="n">
         <v>4692.417407580351</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T14" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U14" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V14" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W14" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X14" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="15">
@@ -5357,7 +5357,7 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J15" t="n">
-        <v>241.496329903453</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K15" t="n">
         <v>572.0050724668117</v>
@@ -5366,13 +5366,13 @@
         <v>1062.737405310563</v>
       </c>
       <c r="M15" t="n">
-        <v>1654.755759562691</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N15" t="n">
-        <v>1654.755759562691</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O15" t="n">
-        <v>2201.632234562885</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P15" t="n">
         <v>2553.812354695766</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.8714428665047</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C16" t="n">
-        <v>402.9352599385978</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D16" t="n">
-        <v>402.9352599385978</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E16" t="n">
-        <v>402.9352599385978</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="F16" t="n">
-        <v>402.9352599385978</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="G16" t="n">
-        <v>235.7210651131766</v>
+        <v>158.945337194272</v>
       </c>
       <c r="H16" t="n">
         <v>93.84834815160703</v>
@@ -5460,28 +5460,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R16" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S16" t="n">
-        <v>2255.15869195203</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.479909666413</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.403695981139</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.719207775252</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.302037738292</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X16" t="n">
-        <v>974.3124868402746</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.5199076967444</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="17">
@@ -5497,16 +5497,16 @@
         <v>1949.298676890958</v>
       </c>
       <c r="D17" t="n">
-        <v>1591.032978284207</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E17" t="n">
-        <v>1205.244725685963</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F17" t="n">
-        <v>794.2588208963555</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G17" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H17" t="n">
         <v>93.84834815160703</v>
@@ -5515,10 +5515,10 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J17" t="n">
-        <v>373.34422365072</v>
+        <v>424.14374500152</v>
       </c>
       <c r="K17" t="n">
-        <v>842.974607438402</v>
+        <v>893.7741287892018</v>
       </c>
       <c r="L17" t="n">
         <v>1513.293909294976</v>
@@ -5594,22 +5594,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J18" t="n">
-        <v>241.496329903453</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K18" t="n">
-        <v>241.496329903453</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L18" t="n">
-        <v>732.2286627472043</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M18" t="n">
-        <v>1324.247016999332</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N18" t="n">
-        <v>1946.342980398668</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O18" t="n">
-        <v>2493.219455398862</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P18" t="n">
         <v>2553.812354695766</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.7042115721531</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7680286442462</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6513892319105</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7382956495174</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="F19" t="n">
-        <v>93.84834815160703</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="G19" t="n">
-        <v>93.84834815160703</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H19" t="n">
         <v>93.84834815160703</v>
@@ -5712,13 +5712,13 @@
         <v>1414.943479856348</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.13480644394</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.145255545923</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3526764023928</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>1949.298676890958</v>
       </c>
       <c r="D20" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E20" t="n">
         <v>1205.244725685964</v>
       </c>
       <c r="F20" t="n">
-        <v>794.2588208963557</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G20" t="n">
         <v>380.2757138127629</v>
@@ -5752,28 +5752,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J20" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K20" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L20" t="n">
-        <v>1462.494387944177</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M20" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N20" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O20" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P20" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q20" t="n">
-        <v>4515.534099052815</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R20" t="n">
         <v>4692.417407580351</v>
@@ -5831,7 +5831,7 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J21" t="n">
-        <v>241.496329903453</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K21" t="n">
         <v>572.0050724668117</v>
@@ -5840,16 +5840,16 @@
         <v>1062.737405310563</v>
       </c>
       <c r="M21" t="n">
-        <v>1654.755759562691</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N21" t="n">
-        <v>1654.755759562691</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="O21" t="n">
-        <v>2201.632234562885</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.812354695766</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>977.7697540515045</v>
+        <v>654.5023284669179</v>
       </c>
       <c r="C22" t="n">
-        <v>930.4858260316502</v>
+        <v>485.566145539011</v>
       </c>
       <c r="D22" t="n">
-        <v>780.3691866193144</v>
+        <v>485.566145539011</v>
       </c>
       <c r="E22" t="n">
-        <v>632.4560930369213</v>
+        <v>485.566145539011</v>
       </c>
       <c r="F22" t="n">
-        <v>485.5661455390109</v>
+        <v>485.566145539011</v>
       </c>
       <c r="G22" t="n">
         <v>318.3519507135898</v>
@@ -5934,28 +5934,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R22" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S22" t="n">
-        <v>2178.382964033126</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T22" t="n">
-        <v>1958.704181747508</v>
+        <v>2118.110795266826</v>
       </c>
       <c r="U22" t="n">
-        <v>1669.627968062235</v>
+        <v>1829.034581581553</v>
       </c>
       <c r="V22" t="n">
-        <v>1669.627968062235</v>
+        <v>1574.350093375666</v>
       </c>
       <c r="W22" t="n">
-        <v>1380.210798025274</v>
+        <v>1284.932923338705</v>
       </c>
       <c r="X22" t="n">
-        <v>1380.210798025274</v>
+        <v>1056.943372440688</v>
       </c>
       <c r="Y22" t="n">
-        <v>1159.418218881744</v>
+        <v>836.1507932971576</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C23" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D23" t="n">
         <v>1591.032978284208</v>
@@ -5989,52 +5989,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J23" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K23" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L23" t="n">
-        <v>1462.494387944177</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M23" t="n">
-        <v>2183.498949883215</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N23" t="n">
-        <v>2971.583449151121</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O23" t="n">
-        <v>3654.445485610259</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P23" t="n">
-        <v>4202.751434297607</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q23" t="n">
-        <v>4566.333620403614</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R23" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T23" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U23" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V23" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W23" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X23" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="24">
@@ -6068,7 +6068,7 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J24" t="n">
-        <v>241.496329903453</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K24" t="n">
         <v>572.0050724668117</v>
@@ -6077,16 +6077,16 @@
         <v>1062.737405310563</v>
       </c>
       <c r="M24" t="n">
-        <v>1356.791087284249</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N24" t="n">
-        <v>1356.791087284249</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O24" t="n">
-        <v>1903.667562284443</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="P24" t="n">
-        <v>2323.251080710519</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.812354695766</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1099.422008959557</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C25" t="n">
-        <v>930.4858260316502</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D25" t="n">
-        <v>780.3691866193144</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E25" t="n">
-        <v>632.4560930369213</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="F25" t="n">
-        <v>485.5661455390109</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="G25" t="n">
-        <v>318.3519507135898</v>
+        <v>158.945337194272</v>
       </c>
       <c r="H25" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I25" t="n">
         <v>93.84834815160703</v>
@@ -6171,28 +6171,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R25" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S25" t="n">
-        <v>2246.242309074625</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T25" t="n">
-        <v>2026.563526789007</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U25" t="n">
-        <v>2026.563526789007</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V25" t="n">
-        <v>1771.87903858312</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.852603831344</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.863052933327</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y25" t="n">
-        <v>1281.070473789797</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="26">
@@ -6217,61 +6217,61 @@
         <v>794.2588208963566</v>
       </c>
       <c r="G26" t="n">
-        <v>380.2757138127629</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H26" t="n">
         <v>93.84834815160701</v>
       </c>
       <c r="I26" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="J26" t="n">
-        <v>373.3442236507201</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K26" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L26" t="n">
-        <v>1462.494387944177</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M26" t="n">
-        <v>2183.498949883215</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N26" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.583449151119</v>
       </c>
       <c r="O26" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610257</v>
       </c>
       <c r="P26" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q26" t="n">
-        <v>4515.534099052815</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R26" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.41740758035</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.950144347202</v>
+        <v>4606.950144347199</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.74099602652</v>
+        <v>4405.740996026518</v>
       </c>
       <c r="U26" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746067</v>
       </c>
       <c r="V26" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402496</v>
       </c>
       <c r="W26" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132382</v>
       </c>
       <c r="X26" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871302</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.86103389549</v>
       </c>
     </row>
     <row r="27">
@@ -6299,31 +6299,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H27" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I27" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="J27" t="n">
-        <v>241.496329903453</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K27" t="n">
-        <v>572.0050724668118</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="L27" t="n">
-        <v>1062.737405310563</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="M27" t="n">
-        <v>1476.806668636444</v>
+        <v>699.3689196510031</v>
       </c>
       <c r="N27" t="n">
-        <v>2098.90263203578</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O27" t="n">
-        <v>2098.90263203578</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P27" t="n">
-        <v>2518.486150461856</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q27" t="n">
         <v>2518.486150461856</v>
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1099.422008959557</v>
+        <v>495.0957149475996</v>
       </c>
       <c r="C28" t="n">
-        <v>930.4858260316502</v>
+        <v>326.1595320196927</v>
       </c>
       <c r="D28" t="n">
-        <v>780.3691866193144</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="E28" t="n">
-        <v>632.4560930369213</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="F28" t="n">
-        <v>485.566145539011</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G28" t="n">
-        <v>318.3519507135898</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="H28" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I28" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="J28" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K28" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117245</v>
       </c>
       <c r="L28" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948588</v>
       </c>
       <c r="M28" t="n">
         <v>1239.450608139318</v>
@@ -6399,16 +6399,16 @@
         <v>1654.146473931025</v>
       </c>
       <c r="O28" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946054</v>
       </c>
       <c r="P28" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782259</v>
       </c>
       <c r="Q28" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335694</v>
       </c>
       <c r="R28" t="n">
-        <v>2361.553154294196</v>
+        <v>2361.553154294195</v>
       </c>
       <c r="S28" t="n">
         <v>2178.382964033126</v>
@@ -6417,19 +6417,19 @@
         <v>1958.704181747508</v>
       </c>
       <c r="U28" t="n">
-        <v>1958.704181747508</v>
+        <v>1669.627968062234</v>
       </c>
       <c r="V28" t="n">
-        <v>1704.019693541621</v>
+        <v>1414.943479856347</v>
       </c>
       <c r="W28" t="n">
-        <v>1414.60252350466</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X28" t="n">
-        <v>1414.60252350466</v>
+        <v>897.5367589213695</v>
       </c>
       <c r="Y28" t="n">
-        <v>1281.070473789797</v>
+        <v>676.7441797778393</v>
       </c>
     </row>
     <row r="29">
@@ -6454,43 +6454,43 @@
         <v>794.2588208963562</v>
       </c>
       <c r="G29" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H29" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I29" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J29" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K29" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L29" t="n">
-        <v>1462.494387944177</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M29" t="n">
-        <v>2183.498949883215</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N29" t="n">
-        <v>2920.783927800321</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O29" t="n">
-        <v>3603.64596425946</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P29" t="n">
-        <v>4151.951912946808</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q29" t="n">
-        <v>4515.534099052815</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R29" t="n">
         <v>4692.417407580351</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T29" t="n">
         <v>4405.740996026519</v>
@@ -6542,25 +6542,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J30" t="n">
-        <v>241.496329903453</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K30" t="n">
-        <v>241.496329903453</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="L30" t="n">
-        <v>241.496329903453</v>
+        <v>373.2380436180325</v>
       </c>
       <c r="M30" t="n">
-        <v>833.5146841555808</v>
+        <v>965.2563978701601</v>
       </c>
       <c r="N30" t="n">
-        <v>1455.610647554917</v>
+        <v>1587.352361269496</v>
       </c>
       <c r="O30" t="n">
-        <v>2002.487122555111</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.070640981187</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.812354695766</v>
@@ -6600,13 +6600,13 @@
         <v>495.0957149476001</v>
       </c>
       <c r="C31" t="n">
-        <v>407.9524904749385</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="D31" t="n">
-        <v>407.9524904749385</v>
+        <v>344.9790755352643</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9524904749385</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="F31" t="n">
         <v>261.0625429770282</v>
@@ -6688,46 +6688,46 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F32" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G32" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H32" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I32" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J32" t="n">
-        <v>373.3442236507205</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K32" t="n">
-        <v>893.7741287891952</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L32" t="n">
-        <v>1513.293909294971</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M32" t="n">
-        <v>2234.298471234009</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N32" t="n">
-        <v>2971.583449151116</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O32" t="n">
-        <v>3654.445485610256</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P32" t="n">
-        <v>4202.751434297605</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q32" t="n">
-        <v>4566.333620403612</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R32" t="n">
         <v>4692.417407580351</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T32" t="n">
         <v>4405.740996026519</v>
@@ -6779,28 +6779,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J33" t="n">
-        <v>241.4963299034533</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K33" t="n">
-        <v>241.4963299034533</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L33" t="n">
-        <v>241.4963299034533</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M33" t="n">
-        <v>833.5146841555818</v>
+        <v>1587.352361269496</v>
       </c>
       <c r="N33" t="n">
-        <v>1455.610647554919</v>
+        <v>1587.352361269496</v>
       </c>
       <c r="O33" t="n">
-        <v>2002.487122555114</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.070640981191</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q33" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R33" t="n">
         <v>2553.812354695766</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>869.9011758612336</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C34" t="n">
-        <v>700.9649929333267</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D34" t="n">
-        <v>550.8483535209909</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E34" t="n">
-        <v>402.9352599385978</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="F34" t="n">
-        <v>402.9352599385978</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="G34" t="n">
-        <v>235.7210651131766</v>
+        <v>158.945337194272</v>
       </c>
       <c r="H34" t="n">
         <v>93.84834815160703</v>
@@ -6858,52 +6858,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J34" t="n">
-        <v>172.8304710411611</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K34" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L34" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M34" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N34" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O34" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P34" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q34" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R34" t="n">
-        <v>2361.553154294199</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S34" t="n">
-        <v>2178.382964033129</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T34" t="n">
-        <v>1958.704181747511</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U34" t="n">
-        <v>1669.627968062238</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V34" t="n">
-        <v>1669.627968062238</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W34" t="n">
-        <v>1380.210798025277</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X34" t="n">
-        <v>1152.22124712726</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y34" t="n">
-        <v>1051.549640691473</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2318.261193831369</v>
       </c>
       <c r="C35" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D35" t="n">
         <v>1591.032978284208</v>
@@ -6925,40 +6925,40 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>794.2588208963557</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G35" t="n">
-        <v>380.2757138127621</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H35" t="n">
-        <v>93.84834815160633</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I35" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J35" t="n">
-        <v>424.1437450015126</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K35" t="n">
-        <v>893.7741287891952</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L35" t="n">
-        <v>1513.293909294971</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M35" t="n">
-        <v>2234.298471234009</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N35" t="n">
-        <v>2971.583449151116</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O35" t="n">
-        <v>3654.445485610256</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P35" t="n">
-        <v>4202.751434297605</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q35" t="n">
-        <v>4566.333620403612</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R35" t="n">
         <v>4692.417407580351</v>
@@ -7016,25 +7016,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J36" t="n">
-        <v>241.4963299034533</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K36" t="n">
-        <v>241.4963299034533</v>
+        <v>504.6016741736174</v>
       </c>
       <c r="L36" t="n">
-        <v>241.4963299034533</v>
+        <v>995.3340070173687</v>
       </c>
       <c r="M36" t="n">
-        <v>833.5146841555818</v>
+        <v>1587.352361269496</v>
       </c>
       <c r="N36" t="n">
-        <v>1356.791087284247</v>
+        <v>1587.352361269496</v>
       </c>
       <c r="O36" t="n">
-        <v>1903.667562284443</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P36" t="n">
-        <v>2323.251080710519</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.812354695766</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>749.7802031534898</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9822234696674</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8655840573316</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9524904749385</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0625429770282</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G37" t="n">
-        <v>93.84834815160703</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H37" t="n">
         <v>93.84834815160703</v>
@@ -7095,52 +7095,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J37" t="n">
-        <v>172.8304710411611</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K37" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L37" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M37" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N37" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O37" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P37" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q37" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R37" t="n">
-        <v>2361.553154294199</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S37" t="n">
-        <v>2178.382964033129</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T37" t="n">
-        <v>1958.704181747511</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U37" t="n">
-        <v>1669.627968062238</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V37" t="n">
-        <v>1669.627968062238</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W37" t="n">
-        <v>1380.210798025277</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X37" t="n">
-        <v>1152.22124712726</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y37" t="n">
-        <v>931.4286679837295</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C38" t="n">
         <v>1949.298676890959</v>
@@ -7162,7 +7162,7 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F38" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G38" t="n">
         <v>380.2757138127629</v>
@@ -7174,34 +7174,34 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J38" t="n">
-        <v>373.3442236507205</v>
+        <v>424.14374500152</v>
       </c>
       <c r="K38" t="n">
-        <v>842.9746074384032</v>
+        <v>893.7741287892018</v>
       </c>
       <c r="L38" t="n">
-        <v>1462.494387944179</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M38" t="n">
-        <v>2183.498949883217</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N38" t="n">
-        <v>2920.783927800325</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O38" t="n">
-        <v>3603.645964259464</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P38" t="n">
-        <v>4151.951912946813</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q38" t="n">
-        <v>4566.333620403612</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R38" t="n">
         <v>4692.417407580351</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T38" t="n">
         <v>4405.740996026519</v>
@@ -7210,7 +7210,7 @@
         <v>4152.297666746069</v>
       </c>
       <c r="V38" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W38" t="n">
         <v>3468.466124132384</v>
@@ -7219,7 +7219,7 @@
         <v>3095.000365871304</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J39" t="n">
-        <v>241.4963299034533</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K39" t="n">
-        <v>474.5240650264058</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="L39" t="n">
-        <v>965.2563978701578</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="M39" t="n">
-        <v>965.2563978701578</v>
+        <v>734.6951238849133</v>
       </c>
       <c r="N39" t="n">
-        <v>1587.352361269495</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O39" t="n">
-        <v>2134.22883626969</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.812354695766</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>678.2659052086724</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C40" t="n">
-        <v>509.3297222807655</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D40" t="n">
-        <v>359.2130828684298</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E40" t="n">
-        <v>235.7210651131766</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="F40" t="n">
-        <v>235.7210651131766</v>
+        <v>179.2695845217828</v>
       </c>
       <c r="G40" t="n">
-        <v>235.7210651131766</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H40" t="n">
         <v>93.84834815160703</v>
@@ -7332,52 +7332,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J40" t="n">
-        <v>172.8304710411611</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K40" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L40" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M40" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N40" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O40" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P40" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q40" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R40" t="n">
-        <v>2361.553154294199</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S40" t="n">
-        <v>2361.553154294199</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T40" t="n">
-        <v>2141.87437200858</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U40" t="n">
-        <v>1852.798158323307</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V40" t="n">
-        <v>1598.11367011742</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W40" t="n">
-        <v>1308.69650008046</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X40" t="n">
-        <v>1080.706949182442</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y40" t="n">
-        <v>859.9143700389121</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="41">
@@ -7399,40 +7399,40 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F41" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G41" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H41" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I41" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J41" t="n">
-        <v>373.3442236507205</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K41" t="n">
-        <v>842.9746074384032</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L41" t="n">
-        <v>1462.494387944179</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M41" t="n">
-        <v>2183.498949883217</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N41" t="n">
-        <v>2971.583449151116</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O41" t="n">
-        <v>3654.445485610256</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P41" t="n">
-        <v>4202.751434297605</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q41" t="n">
-        <v>4566.333620403612</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R41" t="n">
         <v>4692.417407580351</v>
@@ -7490,28 +7490,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J42" t="n">
-        <v>241.4963299034533</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K42" t="n">
-        <v>572.0050724668126</v>
+        <v>302.0892292003572</v>
       </c>
       <c r="L42" t="n">
-        <v>1062.737405310565</v>
+        <v>792.8215620441084</v>
       </c>
       <c r="M42" t="n">
-        <v>1654.755759562693</v>
+        <v>1384.839916296236</v>
       </c>
       <c r="N42" t="n">
-        <v>1654.755759562693</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O42" t="n">
-        <v>1868.341358050532</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P42" t="n">
-        <v>2287.924876476608</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q42" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R42" t="n">
         <v>2553.812354695766</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.7042115721531</v>
+        <v>562.9550599890988</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7680286442462</v>
+        <v>394.0188770611919</v>
       </c>
       <c r="D43" t="n">
         <v>388.6513892319105</v>
@@ -7569,52 +7569,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J43" t="n">
-        <v>172.8304710411611</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K43" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L43" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M43" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N43" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O43" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P43" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q43" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R43" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S43" t="n">
-        <v>2246.242309074627</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T43" t="n">
-        <v>2026.563526789009</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U43" t="n">
-        <v>1737.487313103736</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V43" t="n">
-        <v>1482.802824897849</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W43" t="n">
-        <v>1193.385654860888</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X43" t="n">
-        <v>965.3961039628709</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3526764023928</v>
+        <v>744.6035248193385</v>
       </c>
     </row>
     <row r="44">
@@ -7636,40 +7636,40 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G44" t="n">
         <v>380.2757138127627</v>
       </c>
       <c r="H44" t="n">
-        <v>93.84834815160673</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I44" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J44" t="n">
-        <v>373.3442236507203</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K44" t="n">
-        <v>842.9746074384025</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L44" t="n">
-        <v>1462.494387944178</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M44" t="n">
-        <v>2234.29847123401</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N44" t="n">
-        <v>2971.583449151117</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O44" t="n">
-        <v>3654.445485610256</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P44" t="n">
-        <v>4202.751434297605</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q44" t="n">
-        <v>4566.333620403612</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R44" t="n">
         <v>4692.417407580351</v>
@@ -7727,28 +7727,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J45" t="n">
-        <v>241.4963299034532</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K45" t="n">
-        <v>572.0050724668122</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L45" t="n">
-        <v>1062.737405310564</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M45" t="n">
-        <v>1654.755759562692</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="N45" t="n">
-        <v>2276.851722962028</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O45" t="n">
-        <v>2287.924876476608</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="P45" t="n">
-        <v>2287.924876476608</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q45" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R45" t="n">
         <v>2553.812354695766</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>869.9011758612336</v>
+        <v>562.9550599890988</v>
       </c>
       <c r="C46" t="n">
-        <v>700.9649929333267</v>
+        <v>394.0188770611919</v>
       </c>
       <c r="D46" t="n">
-        <v>550.8483535209909</v>
+        <v>243.9022376488562</v>
       </c>
       <c r="E46" t="n">
-        <v>402.9352599385978</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F46" t="n">
-        <v>402.9352599385978</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G46" t="n">
-        <v>235.7210651131766</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H46" t="n">
         <v>93.84834815160703</v>
@@ -7806,22 +7806,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J46" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K46" t="n">
-        <v>432.4591980117249</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L46" t="n">
-        <v>820.2210160948594</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M46" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N46" t="n">
-        <v>1654.146473931026</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O46" t="n">
-        <v>2021.168930946056</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P46" t="n">
         <v>2311.69936578226</v>
@@ -7833,25 +7833,25 @@
         <v>2429.412499335695</v>
       </c>
       <c r="S46" t="n">
-        <v>2429.412499335695</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T46" t="n">
-        <v>2333.509642661142</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U46" t="n">
-        <v>2044.433428975868</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V46" t="n">
-        <v>1789.748940769981</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W46" t="n">
-        <v>1500.331770733021</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X46" t="n">
-        <v>1272.342219835003</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="Y46" t="n">
-        <v>1051.549640691473</v>
+        <v>744.6035248193385</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>51.31264782909113</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>51.312647829089</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8935,7 +8935,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>51.31264782909102</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>51.312647829089</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>51.31264782909045</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>51.31264782909102</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>51.312647829089</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9649,7 +9649,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>51.31264782909079</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9886,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>51.31264782909011</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>51.31264782908991</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>51.312647829089</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>51.31264782908278</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>51.31264782908289</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>51.31264782908283</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11065,13 +11065,13 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>51.31264782908261</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>51.31264782908522</v>
+        <v>51.31264782909102</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>50.47721991512373</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.0170882433307</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>76.00797063971555</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>8.827219048631576</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5420528771669</v>
+        <v>76.00797063971552</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>210.4824116583075</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>120.435732358972</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>90.63179579304089</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>76.00797063971555</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>244.9168279323331</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>84.16945386597443</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>86.38792413437977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>80.97502887069287</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>63.35659541391539</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I31" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>76.00797063971555</v>
       </c>
       <c r="I34" t="n">
-        <v>81.80457674440895</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>118.9197629806663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>123.8868212116436</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>54.18219756401896</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.80457674440895</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>24.17686506886858</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5420528771669</v>
+        <v>80.97502887069288</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I40" t="n">
-        <v>81.80457674440895</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.3384883584589</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>143.3016600672238</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I43" t="n">
-        <v>81.80457674440895</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18075159108344</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>143.3016600672215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>143.3016600672238</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I46" t="n">
-        <v>81.80457674440898</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>67.18075159108349</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S46" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>122.5381663549536</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>649618.7185000009</v>
+        <v>649618.7185000008</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>649618.7185000009</v>
+        <v>649618.7185000008</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>649618.7185000007</v>
+        <v>649618.7185000008</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>649618.7185000007</v>
+        <v>649618.7185000008</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>649618.7185000009</v>
+        <v>649618.7185000008</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>779989.681371069</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710692</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="E2" t="n">
-        <v>766348.8282626314</v>
+        <v>766348.8282626315</v>
       </c>
       <c r="F2" t="n">
         <v>766348.8282626315</v>
       </c>
       <c r="G2" t="n">
-        <v>766348.8282626319</v>
+        <v>766348.8282626317</v>
       </c>
       <c r="H2" t="n">
+        <v>766348.8282626312</v>
+      </c>
+      <c r="I2" t="n">
         <v>766348.8282626313</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>766348.8282626315</v>
+      </c>
+      <c r="K2" t="n">
+        <v>766348.8282626315</v>
+      </c>
+      <c r="L2" t="n">
+        <v>766348.8282626313</v>
+      </c>
+      <c r="M2" t="n">
         <v>766348.8282626314</v>
       </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
         <v>766348.8282626314</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>766348.8282626314</v>
       </c>
-      <c r="L2" t="n">
-        <v>766348.8282626319</v>
-      </c>
-      <c r="M2" t="n">
-        <v>766348.8282626319</v>
-      </c>
-      <c r="N2" t="n">
-        <v>766348.8282626318</v>
-      </c>
-      <c r="O2" t="n">
-        <v>766348.8282626319</v>
-      </c>
       <c r="P2" t="n">
-        <v>766348.8282626318</v>
+        <v>766348.8282626313</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>936509.6654545122</v>
+        <v>936509.6654545121</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>9.755040082382038e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>124307.2113901372</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
         <v>192206.5963924297</v>
@@ -26426,40 +26426,40 @@
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>5069.915760662892</v>
+        <v>5069.915760662919</v>
       </c>
       <c r="F4" t="n">
-        <v>5069.915760662893</v>
+        <v>5069.915760662969</v>
       </c>
       <c r="G4" t="n">
-        <v>5069.915760662957</v>
+        <v>5069.915760662915</v>
       </c>
       <c r="H4" t="n">
-        <v>5069.915760662893</v>
+        <v>5069.915760662966</v>
       </c>
       <c r="I4" t="n">
-        <v>5069.915760662914</v>
+        <v>5069.915760662916</v>
       </c>
       <c r="J4" t="n">
-        <v>5069.915760662903</v>
+        <v>5069.915760662945</v>
       </c>
       <c r="K4" t="n">
-        <v>5069.915760662893</v>
+        <v>5069.915760662916</v>
       </c>
       <c r="L4" t="n">
-        <v>5069.915760662819</v>
+        <v>5069.915760662916</v>
       </c>
       <c r="M4" t="n">
-        <v>5069.91576066282</v>
+        <v>5069.915760662967</v>
       </c>
       <c r="N4" t="n">
-        <v>5069.91576066282</v>
+        <v>5069.915760662916</v>
       </c>
       <c r="O4" t="n">
-        <v>5069.915760662817</v>
+        <v>5069.915760662916</v>
       </c>
       <c r="P4" t="n">
-        <v>5069.915760662848</v>
+        <v>5069.915760662918</v>
       </c>
     </row>
     <row r="5">
@@ -26493,25 +26493,25 @@
         <v>100930.0394572385</v>
       </c>
       <c r="J5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="K5" t="n">
         <v>100930.0394572385</v>
       </c>
       <c r="L5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="M5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="N5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="O5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="P5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
     </row>
     <row r="6">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-85043.87229931459</v>
+        <v>-85043.87229931456</v>
       </c>
       <c r="C6" t="n">
         <v>504924.00691523</v>
@@ -26530,40 +26530,40 @@
         <v>504924.0069152297</v>
       </c>
       <c r="E6" t="n">
-        <v>-276160.7924097822</v>
+        <v>-276519.7622284252</v>
       </c>
       <c r="F6" t="n">
-        <v>660348.8730447302</v>
+        <v>659989.903226087</v>
       </c>
       <c r="G6" t="n">
-        <v>660348.8730447304</v>
+        <v>659989.9032260872</v>
       </c>
       <c r="H6" t="n">
-        <v>660348.8730447299</v>
+        <v>659989.9032260866</v>
       </c>
       <c r="I6" t="n">
-        <v>660348.87304473</v>
+        <v>659989.9032260869</v>
       </c>
       <c r="J6" t="n">
-        <v>483925.653852137</v>
+        <v>483566.684033494</v>
       </c>
       <c r="K6" t="n">
-        <v>660348.87304473</v>
+        <v>659989.9032260871</v>
       </c>
       <c r="L6" t="n">
-        <v>660348.8730447295</v>
+        <v>659989.9032260869</v>
       </c>
       <c r="M6" t="n">
-        <v>536041.6616545932</v>
+        <v>535682.6918359497</v>
       </c>
       <c r="N6" t="n">
-        <v>660348.8730447304</v>
+        <v>659989.903226087</v>
       </c>
       <c r="O6" t="n">
-        <v>660348.8730447304</v>
+        <v>659989.903226087</v>
       </c>
       <c r="P6" t="n">
-        <v>660348.8730447309</v>
+        <v>659989.9032260869</v>
       </c>
     </row>
   </sheetData>
@@ -26709,10 +26709,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26767,19 +26767,19 @@
         <v>1358.041048716386</v>
       </c>
       <c r="L3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="M3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="N3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="O3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="P3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
     </row>
     <row r="4">
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>980.2973844992991</v>
+        <v>980.2973844992989</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27390,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>39.53802575917734</v>
+        <v>53.3000871031237</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27590,7 +27590,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>191.1927627130315</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>117.4308562164692</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>247.9329864305857</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27779,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>4.167450853507134</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>14.59587156758288</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27855,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>36.03392876660422</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>272.0180034264159</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,19 +28013,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>19.77722207330161</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28070,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28809,7 +28809,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>8.682195192673605e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29988,7 +29988,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -31752,46 +31752,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K11" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M11" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O11" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S11" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T11" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U11" t="n">
         <v>0.436756920190194</v>
@@ -31834,7 +31834,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H12" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,34 +31843,34 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K12" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N12" t="n">
-        <v>428.3656332688745</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P12" t="n">
-        <v>557.7961431982454</v>
+        <v>195.1793561990821</v>
       </c>
       <c r="Q12" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U12" t="n">
         <v>0.1921756201013754</v>
@@ -31916,7 +31916,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J13" t="n">
         <v>173.1391022273333</v>
@@ -31925,16 +31925,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P13" t="n">
         <v>296.1865264282424</v>
@@ -31946,7 +31946,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T13" t="n">
         <v>10.46359496551969</v>
@@ -31989,46 +31989,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M14" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
         <v>0.436756920190194</v>
@@ -32071,7 +32071,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32083,19 +32083,19 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>487.0792071670522</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P15" t="n">
-        <v>489.7119024980487</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32153,7 +32153,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J16" t="n">
         <v>173.1391022273333</v>
@@ -32162,16 +32162,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
         <v>296.1865264282424</v>
@@ -32183,7 +32183,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32226,46 +32226,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K17" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M17" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O17" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P17" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R17" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S17" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T17" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U17" t="n">
         <v>0.436756920190194</v>
@@ -32308,7 +32308,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H18" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,22 +32317,22 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M18" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927639</v>
+        <v>487.0792071670522</v>
       </c>
       <c r="O18" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P18" t="n">
-        <v>195.1793561990816</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U18" t="n">
         <v>0.1921756201013754</v>
@@ -32390,7 +32390,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J19" t="n">
         <v>173.1391022273333</v>
@@ -32399,16 +32399,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L19" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M19" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N19" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P19" t="n">
         <v>296.1865264282424</v>
@@ -32420,7 +32420,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T19" t="n">
         <v>10.46359496551969</v>
@@ -32463,46 +32463,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K20" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M20" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S20" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T20" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U20" t="n">
         <v>0.436756920190194</v>
@@ -32545,7 +32545,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H21" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32557,31 +32557,31 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L21" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M21" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>382.7677754386397</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426205</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>489.7119024980487</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U21" t="n">
         <v>0.1921756201013754</v>
@@ -32627,7 +32627,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J22" t="n">
         <v>173.1391022273333</v>
@@ -32636,16 +32636,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P22" t="n">
         <v>296.1865264282424</v>
@@ -32657,7 +32657,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T22" t="n">
         <v>10.46359496551969</v>
@@ -32700,46 +32700,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H23" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K23" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L23" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M23" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N23" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O23" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P23" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q23" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R23" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S23" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T23" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U23" t="n">
         <v>0.436756920190194</v>
@@ -32782,7 +32782,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H24" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32794,31 +32794,31 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L24" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M24" t="n">
-        <v>439.1579551075595</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O24" t="n">
-        <v>694.9967242426205</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>557.7961431982454</v>
+        <v>413.7326212867947</v>
       </c>
       <c r="Q24" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T24" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U24" t="n">
         <v>0.1921756201013754</v>
@@ -32864,7 +32864,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I25" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J25" t="n">
         <v>173.1391022273333</v>
@@ -32873,16 +32873,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L25" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M25" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N25" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O25" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P25" t="n">
         <v>296.1865264282424</v>
@@ -32894,7 +32894,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S25" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T25" t="n">
         <v>10.46359496551969</v>
@@ -32937,46 +32937,46 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H26" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K26" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L26" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M26" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N26" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O26" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P26" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q26" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R26" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S26" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T26" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U26" t="n">
         <v>0.436756920190194</v>
@@ -33019,7 +33019,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H27" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,34 +33028,34 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K27" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>634.2436048745725</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>560.3858150592717</v>
+        <v>604.6315993235842</v>
       </c>
       <c r="N27" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P27" t="n">
-        <v>557.7961431982454</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R27" t="n">
-        <v>181.3625385436714</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S27" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T27" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U27" t="n">
         <v>0.1921756201013754</v>
@@ -33101,7 +33101,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I28" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J28" t="n">
         <v>173.1391022273333</v>
@@ -33110,16 +33110,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L28" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M28" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N28" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O28" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P28" t="n">
         <v>296.1865264282424</v>
@@ -33131,7 +33131,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S28" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T28" t="n">
         <v>10.46359496551969</v>
@@ -33174,46 +33174,46 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H29" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K29" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L29" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M29" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N29" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O29" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P29" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q29" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R29" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S29" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T29" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U29" t="n">
         <v>0.436756920190194</v>
@@ -33256,7 +33256,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H30" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33268,31 +33268,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>271.6268178754091</v>
       </c>
       <c r="M30" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N30" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O30" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P30" t="n">
-        <v>557.7961431982454</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q30" t="n">
-        <v>273.0542121815558</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T30" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U30" t="n">
         <v>0.1921756201013754</v>
@@ -33338,7 +33338,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I31" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J31" t="n">
         <v>173.1391022273333</v>
@@ -33347,16 +33347,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L31" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M31" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N31" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O31" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P31" t="n">
         <v>296.1865264282424</v>
@@ -33368,7 +33368,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S31" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T31" t="n">
         <v>10.46359496551969</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H32" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K32" t="n">
-        <v>694.4639760830438</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L32" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M32" t="n">
-        <v>958.6336695293319</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N32" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O32" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P32" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q32" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R32" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S32" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T32" t="n">
-        <v>23.89879272665722</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H33" t="n">
-        <v>28.21138103088193</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>275.9770021735821</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M33" t="n">
-        <v>740.1323715504309</v>
+        <v>672.0481308502337</v>
       </c>
       <c r="N33" t="n">
-        <v>759.7214730927647</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>694.9967242426213</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P33" t="n">
-        <v>557.796143198246</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q33" t="n">
-        <v>237.3711776018449</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>181.3625385436715</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.25758340862166</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T33" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H34" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I34" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J34" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K34" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L34" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M34" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N34" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O34" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P34" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q34" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R34" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S34" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T34" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H35" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K35" t="n">
-        <v>694.4639760830438</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L35" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M35" t="n">
-        <v>958.6336695293319</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N35" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O35" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P35" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q35" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R35" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S35" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T35" t="n">
-        <v>23.89879272665722</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H36" t="n">
-        <v>28.21138103088193</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>275.9770021735821</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>403.6044129846262</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M36" t="n">
-        <v>740.1323715504309</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N36" t="n">
-        <v>659.9037354456218</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>694.9967242426213</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P36" t="n">
-        <v>557.796143198246</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q36" t="n">
-        <v>372.8719498286956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.25758340862166</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T36" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H37" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I37" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J37" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K37" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L37" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M37" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N37" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O37" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P37" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q37" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R37" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S37" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T37" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H38" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K38" t="n">
-        <v>694.4639760830438</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L38" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M38" t="n">
-        <v>958.6336695293319</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N38" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O38" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P38" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q38" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R38" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S38" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T38" t="n">
-        <v>23.89879272665722</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H39" t="n">
-        <v>28.21138103088193</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>275.9770021735821</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K39" t="n">
-        <v>373.222989603604</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>634.2436048745732</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>640.3146339032915</v>
       </c>
       <c r="N39" t="n">
-        <v>759.7214730927647</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O39" t="n">
-        <v>694.9967242426213</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P39" t="n">
-        <v>557.796143198246</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.25758340862166</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T39" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H40" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I40" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J40" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K40" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L40" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M40" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N40" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O40" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P40" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q40" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R40" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S40" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T40" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H41" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K41" t="n">
-        <v>694.4639760830438</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L41" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M41" t="n">
-        <v>958.6336695293319</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N41" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O41" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P41" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q41" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R41" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S41" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T41" t="n">
-        <v>23.89879272665722</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H42" t="n">
-        <v>28.21138103088193</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>275.9770021735821</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K42" t="n">
-        <v>471.688653684823</v>
+        <v>199.0463877591108</v>
       </c>
       <c r="L42" t="n">
-        <v>634.2436048745732</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M42" t="n">
-        <v>740.1323715504309</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O42" t="n">
-        <v>358.3392732200391</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P42" t="n">
-        <v>557.796143198246</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>372.8719498286956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>181.3625385436715</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.25758340862166</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T42" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H43" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I43" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J43" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K43" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L43" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M43" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N43" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O43" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P43" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q43" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R43" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S43" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T43" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.459461502377429</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H44" t="n">
-        <v>55.91171011122286</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I44" t="n">
-        <v>210.475889570406</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>463.3649706874068</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K44" t="n">
-        <v>694.4639760830435</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L44" t="n">
-        <v>861.5439710364269</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M44" t="n">
-        <v>958.6336695293314</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N44" t="n">
-        <v>974.1453645229614</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O44" t="n">
-        <v>919.8578442086957</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P44" t="n">
-        <v>785.0773883687528</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q44" t="n">
-        <v>589.5604233148611</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R44" t="n">
-        <v>342.9428985987165</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S44" t="n">
-        <v>124.4074789854258</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T44" t="n">
-        <v>23.89879272665721</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4367569201901942</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.921069425540907</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H45" t="n">
-        <v>28.21138103088192</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>275.977002173582</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K45" t="n">
-        <v>471.6886536848227</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L45" t="n">
-        <v>634.2436048745728</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M45" t="n">
-        <v>740.1323715504305</v>
+        <v>439.1579551075602</v>
       </c>
       <c r="N45" t="n">
-        <v>759.7214730927642</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>153.7812479945254</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q45" t="n">
-        <v>372.8719498286954</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R45" t="n">
-        <v>181.3625385436715</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.25758340862163</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T45" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1921756201013755</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.448926481291844</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H46" t="n">
-        <v>21.77318271548569</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I46" t="n">
-        <v>73.64589818284931</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J46" t="n">
-        <v>173.1391022273334</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K46" t="n">
-        <v>284.5207311900888</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L46" t="n">
-        <v>364.0885788640621</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M46" t="n">
-        <v>383.8803574265024</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N46" t="n">
-        <v>374.7525405416877</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O46" t="n">
-        <v>346.1446266465965</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P46" t="n">
-        <v>296.1865264282426</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q46" t="n">
-        <v>205.0641983561744</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R46" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S46" t="n">
-        <v>42.67810967851331</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T46" t="n">
         <v>10.46359496551969</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1335778080704644</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,10 +35263,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L11" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M11" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N11" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870085</v>
+        <v>741.0722806160995</v>
       </c>
       <c r="P11" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R11" t="n">
-        <v>178.6700086136732</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K12" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N12" t="n">
-        <v>297.0239211855412</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O12" t="n">
-        <v>552.4004797981761</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P12" t="n">
-        <v>423.8217357839152</v>
+        <v>61.20494878475183</v>
       </c>
       <c r="Q12" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K13" t="n">
         <v>262.2512393642057</v>
@@ -35576,19 +35576,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N13" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O13" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020583</v>
+        <v>779.6000841311491</v>
       </c>
       <c r="N14" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P14" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R14" t="n">
-        <v>178.6700086136732</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,19 +35731,19 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>355.7374950837189</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981761</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P15" t="n">
-        <v>355.7374950837184</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K16" t="n">
         <v>262.2512393642057</v>
@@ -35813,19 +35813,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>282.3190661607202</v>
+        <v>333.631713989811</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L17" t="n">
-        <v>677.0902038955297</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M17" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N17" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O17" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P17" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R17" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M18" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094306</v>
+        <v>355.7374950837189</v>
       </c>
       <c r="O18" t="n">
-        <v>552.4004797981761</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P18" t="n">
-        <v>61.20494878475137</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K19" t="n">
         <v>262.2512393642057</v>
@@ -36050,19 +36050,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N19" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O19" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P19" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M20" t="n">
-        <v>728.2874363020583</v>
+        <v>779.6000841311491</v>
       </c>
       <c r="N20" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P20" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R20" t="n">
-        <v>178.6700086136732</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,22 +36205,22 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L21" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M21" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>251.4260633553063</v>
       </c>
       <c r="O21" t="n">
-        <v>552.4004797981761</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>355.7374950837184</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K22" t="n">
         <v>262.2512393642057</v>
@@ -36287,19 +36287,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N22" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O22" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K23" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M23" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N23" t="n">
-        <v>796.0449487554608</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O23" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P23" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q23" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R23" t="n">
-        <v>127.3573607845842</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L24" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M24" t="n">
-        <v>297.0239211855412</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O24" t="n">
-        <v>552.4004797981761</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>423.8217357839152</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="Q24" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K25" t="n">
         <v>262.2512393642057</v>
@@ -36524,19 +36524,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M25" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N25" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O25" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P25" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q25" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K26" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L26" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M26" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N26" t="n">
-        <v>744.73230092637</v>
+        <v>796.0449487554599</v>
       </c>
       <c r="O26" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P26" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q26" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R26" t="n">
-        <v>178.6700086136741</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,28 +36676,28 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K27" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>495.6892250946983</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>418.2517811372534</v>
+        <v>462.4975654015659</v>
       </c>
       <c r="N27" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P27" t="n">
-        <v>423.8217357839152</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R27" t="n">
-        <v>35.68303457970742</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K28" t="n">
         <v>262.2512393642057</v>
@@ -36761,19 +36761,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M28" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N28" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O28" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P28" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q28" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K29" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L29" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M29" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N29" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O29" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P29" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q29" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R29" t="n">
-        <v>178.6700086136732</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,22 +36916,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>133.0724380955349</v>
       </c>
       <c r="M30" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N30" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O30" t="n">
-        <v>552.4004797981761</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P30" t="n">
-        <v>423.8217357839152</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q30" t="n">
-        <v>133.0724380955343</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K31" t="n">
         <v>262.2512393642057</v>
@@ -36998,19 +36998,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M31" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N31" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O31" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P31" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q31" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>282.3190661607207</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K32" t="n">
-        <v>525.686772867146</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L32" t="n">
-        <v>625.7775560664402</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M32" t="n">
-        <v>728.2874363020592</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N32" t="n">
-        <v>744.732300926371</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O32" t="n">
-        <v>689.7596327870094</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P32" t="n">
-        <v>553.8443926134837</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q32" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R32" t="n">
-        <v>127.3573607845846</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>149.1393755069154</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M33" t="n">
-        <v>597.9983376284126</v>
+        <v>529.9140969282154</v>
       </c>
       <c r="N33" t="n">
-        <v>628.3797610094314</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>552.4004797981769</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P33" t="n">
-        <v>423.8217357839158</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q33" t="n">
-        <v>97.38940351582339</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>35.68303457970759</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K34" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L34" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M34" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N34" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O34" t="n">
-        <v>370.7297545606363</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P34" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q34" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>333.6317139898036</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K35" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L35" t="n">
-        <v>625.7775560664402</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M35" t="n">
-        <v>728.2874363020592</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N35" t="n">
-        <v>744.732300926371</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O35" t="n">
-        <v>689.7596327870094</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P35" t="n">
-        <v>553.8443926134837</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q35" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R35" t="n">
-        <v>127.3573607845846</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>149.1393755069154</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>265.7629740102672</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M36" t="n">
-        <v>597.9983376284126</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N36" t="n">
-        <v>528.5620233622885</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>552.4004797981769</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P36" t="n">
-        <v>423.8217357839158</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q36" t="n">
-        <v>232.8901757426741</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K37" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L37" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M37" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N37" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O37" t="n">
-        <v>370.7297545606363</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P37" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q37" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>282.3190661607207</v>
+        <v>333.631713989811</v>
       </c>
       <c r="K38" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L38" t="n">
-        <v>625.7775560664402</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M38" t="n">
-        <v>728.2874363020592</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N38" t="n">
-        <v>744.732300926371</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O38" t="n">
-        <v>689.7596327870094</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P38" t="n">
-        <v>553.8443926134837</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q38" t="n">
-        <v>418.5673812694946</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R38" t="n">
-        <v>127.3573607845846</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>149.1393755069154</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K39" t="n">
-        <v>235.381550629245</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>495.689225094699</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>498.1805999812731</v>
       </c>
       <c r="N39" t="n">
-        <v>628.3797610094314</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O39" t="n">
-        <v>552.4004797981769</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P39" t="n">
-        <v>423.8217357839158</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K40" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L40" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M40" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N40" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O40" t="n">
-        <v>370.7297545606363</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P40" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q40" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>282.3190661607207</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K41" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L41" t="n">
-        <v>625.7775560664402</v>
+        <v>677.09020389553</v>
       </c>
       <c r="M41" t="n">
-        <v>728.2874363020592</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N41" t="n">
-        <v>796.0449487554536</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O41" t="n">
-        <v>689.7596327870094</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P41" t="n">
-        <v>553.8443926134837</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q41" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R41" t="n">
-        <v>127.3573607845846</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>149.1393755069154</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K42" t="n">
-        <v>333.847214710464</v>
+        <v>61.20494878475177</v>
       </c>
       <c r="L42" t="n">
-        <v>495.689225094699</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M42" t="n">
-        <v>597.9983376284126</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O42" t="n">
-        <v>215.7430287755947</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P42" t="n">
-        <v>423.8217357839158</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>232.8901757426741</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>35.68303457970759</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K43" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L43" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M43" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N43" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O43" t="n">
-        <v>370.7297545606363</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P43" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q43" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>282.3190661607205</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K44" t="n">
-        <v>474.3741250380629</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L44" t="n">
-        <v>625.7775560664397</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M44" t="n">
-        <v>779.6000841311439</v>
+        <v>779.6000841311491</v>
       </c>
       <c r="N44" t="n">
-        <v>744.7323009263705</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O44" t="n">
-        <v>689.759632787009</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P44" t="n">
-        <v>553.8443926134833</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q44" t="n">
-        <v>367.2547334404115</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R44" t="n">
-        <v>127.3573607845844</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>149.1393755069153</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K45" t="n">
-        <v>333.8472147104637</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L45" t="n">
-        <v>495.6892250946987</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M45" t="n">
-        <v>597.9983376284122</v>
+        <v>297.0239211855419</v>
       </c>
       <c r="N45" t="n">
-        <v>628.3797610094309</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>11.18500355008091</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q45" t="n">
-        <v>232.8901757426739</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R45" t="n">
-        <v>35.68303457970751</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>79.77992211066061</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K46" t="n">
-        <v>262.251239364206</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L46" t="n">
-        <v>391.6786041243782</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M46" t="n">
-        <v>423.464234388343</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N46" t="n">
-        <v>418.8847129209163</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O46" t="n">
-        <v>370.7297545606361</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P46" t="n">
-        <v>293.4650856931361</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q46" t="n">
-        <v>118.90215510448</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3800105.513885423</v>
+        <v>3801924.785576463</v>
       </c>
     </row>
     <row r="7">
@@ -664,16 +664,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>353.5759586385877</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>265.9588718996449</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.3768222575565</v>
+        <v>18.37682225755673</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -840,7 +840,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>158.9430593111257</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>21.86332069614261</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>41.03250833502995</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>41.03250833502987</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>307.9222910483171</v>
       </c>
       <c r="G8" t="n">
-        <v>141.7661665943791</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>59.7268375758684</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>54.46079155833878</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1539,13 +1539,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>89.97676987683019</v>
+        <v>88.71497840236862</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
         <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722607</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1663,7 +1663,7 @@
         <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9088959876452</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>64.44601915223836</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4819944627618</v>
+        <v>161.7547243816107</v>
       </c>
       <c r="U16" t="n">
         <v>286.1854515484204</v>
@@ -1861,7 +1861,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H17" t="n">
-        <v>283.5630920045442</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>199.1970568374742</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9088959876452</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>89.5340822374514</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919539</v>
+        <v>64.44601915223836</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2241,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.338488358459</v>
+        <v>109.3380406458336</v>
       </c>
       <c r="T22" t="n">
-        <v>126.8501986697209</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U22" t="n">
         <v>286.1854515484204</v>
@@ -2478,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>91.23885045891228</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
-        <v>64.44601915223836</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>115.995896579035</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>64.44601915223792</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2952,19 +2952,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>5.313812950988587</v>
       </c>
       <c r="E31" t="n">
-        <v>83.07736723265378</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.338488358459</v>
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>64.44601915223836</v>
+        <v>105.3798824585327</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710064</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>105.3798824585327</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>91.23885045891228</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>84.61259060081963</v>
       </c>
       <c r="T38" t="n">
-        <v>199.1970568374736</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U38" t="n">
         <v>250.9088959876463</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>84.56702400647404</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>64.44601915223835</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>5.313812950988587</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>9.43427371450322</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S43" t="n">
         <v>181.338488358459</v>
@@ -4143,13 +4143,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>3.132302579345401</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>76.04058667828352</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S46" t="n">
         <v>181.338488358459</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1309.714918859356</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="C2" t="n">
-        <v>1309.714918859356</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="D2" t="n">
-        <v>1309.714918859356</v>
+        <v>1600.02316032828</v>
       </c>
       <c r="E2" t="n">
-        <v>1309.714918859356</v>
+        <v>1214.234907730036</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>803.2490029404285</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X2" t="n">
-        <v>1309.714918859356</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="Y2" t="n">
-        <v>1309.714918859356</v>
+        <v>1958.288858935031</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,22 +4412,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E4" t="n">
         <v>709.5665374816297</v>
@@ -4482,10 +4482,10 @@
         <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1154.883827626212</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C5" t="n">
-        <v>785.9213106858008</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D5" t="n">
-        <v>785.9213106858008</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>785.9213106858008</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2675.064928698886</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2498.887441013057</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2498.887441013057</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2245.125655651148</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>1914.062768307577</v>
       </c>
       <c r="W5" t="n">
-        <v>1528.349585887292</v>
+        <v>1561.294113037463</v>
       </c>
       <c r="X5" t="n">
-        <v>1154.883827626212</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="Y5" t="n">
-        <v>1154.883827626212</v>
+        <v>1187.828354776384</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785273</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D7" t="n">
-        <v>559.1928012785273</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>411.2797076961342</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>264.3897601982238</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>95.38995993655624</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>95.38995993655624</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>95.38995993655624</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1470.569074795015</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C8" t="n">
-        <v>1101.606557854603</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D8" t="n">
-        <v>743.3408592478529</v>
+        <v>764.6872557005402</v>
       </c>
       <c r="E8" t="n">
-        <v>357.5526066496087</v>
+        <v>378.8990031022959</v>
       </c>
       <c r="F8" t="n">
-        <v>350.6071059004052</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>2247.308246834948</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y8" t="n">
-        <v>1857.168914859137</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="9">
@@ -4883,16 +4883,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785273</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661916</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837985</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858881</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C11" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D11" t="n">
         <v>1591.032978284208</v>
@@ -5029,10 +5029,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F11" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G11" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H11" t="n">
         <v>93.84834815160703</v>
@@ -5056,13 +5056,13 @@
         <v>2920.78392780032</v>
       </c>
       <c r="O11" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P11" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q11" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R11" t="n">
         <v>4692.417407580351</v>
@@ -5074,19 +5074,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U11" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V11" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W11" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X11" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="12">
@@ -5123,19 +5123,19 @@
         <v>241.4963299034529</v>
       </c>
       <c r="K12" t="n">
-        <v>241.4963299034529</v>
+        <v>373.2380436180325</v>
       </c>
       <c r="L12" t="n">
-        <v>732.2286627472042</v>
+        <v>373.2380436180325</v>
       </c>
       <c r="M12" t="n">
-        <v>1324.247016999332</v>
+        <v>965.2563978701601</v>
       </c>
       <c r="N12" t="n">
-        <v>1946.342980398668</v>
+        <v>1587.352361269496</v>
       </c>
       <c r="O12" t="n">
-        <v>2493.219455398862</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P12" t="n">
         <v>2553.812354695766</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>965.8040325357866</v>
+        <v>817.6395481949858</v>
       </c>
       <c r="C13" t="n">
-        <v>796.8678496078797</v>
+        <v>648.7033652670789</v>
       </c>
       <c r="D13" t="n">
-        <v>646.751210195544</v>
+        <v>498.5867258547431</v>
       </c>
       <c r="E13" t="n">
-        <v>498.8381166131509</v>
+        <v>350.67363227235</v>
       </c>
       <c r="F13" t="n">
-        <v>351.9481691152405</v>
+        <v>350.67363227235</v>
       </c>
       <c r="G13" t="n">
-        <v>184.7339742898193</v>
+        <v>183.4594374469289</v>
       </c>
       <c r="H13" t="n">
         <v>93.84834815160703</v>
@@ -5226,25 +5226,25 @@
         <v>2429.412499335695</v>
       </c>
       <c r="S13" t="n">
-        <v>2429.412499335695</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T13" t="n">
-        <v>2429.412499335695</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U13" t="n">
-        <v>2140.336285650421</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V13" t="n">
-        <v>1885.651797444534</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="W13" t="n">
-        <v>1596.234627407574</v>
+        <v>1448.070143066773</v>
       </c>
       <c r="X13" t="n">
-        <v>1368.245076509556</v>
+        <v>1220.080592168756</v>
       </c>
       <c r="Y13" t="n">
-        <v>1147.452497366026</v>
+        <v>999.2880130252255</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C14" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D14" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E14" t="n">
         <v>1205.244725685964</v>
@@ -5287,10 +5287,10 @@
         <v>1462.494387944176</v>
       </c>
       <c r="M14" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N14" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O14" t="n">
         <v>3654.445485610258</v>
@@ -5311,19 +5311,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U14" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V14" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W14" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X14" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="15">
@@ -5360,19 +5360,19 @@
         <v>241.4963299034529</v>
       </c>
       <c r="K15" t="n">
-        <v>572.0050724668117</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="L15" t="n">
-        <v>1062.737405310563</v>
+        <v>732.2286627472042</v>
       </c>
       <c r="M15" t="n">
-        <v>1654.75575956269</v>
+        <v>1324.247016999332</v>
       </c>
       <c r="N15" t="n">
-        <v>2006.935879695572</v>
+        <v>1946.342980398668</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.812354695766</v>
+        <v>2493.219455398862</v>
       </c>
       <c r="P15" t="n">
         <v>2553.812354695766</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>495.0957149476001</v>
+        <v>802.415422049311</v>
       </c>
       <c r="C16" t="n">
-        <v>326.1595320196932</v>
+        <v>633.4792391214041</v>
       </c>
       <c r="D16" t="n">
-        <v>326.1595320196932</v>
+        <v>633.4792391214041</v>
       </c>
       <c r="E16" t="n">
-        <v>326.1595320196932</v>
+        <v>485.566145539011</v>
       </c>
       <c r="F16" t="n">
-        <v>326.1595320196932</v>
+        <v>485.566145539011</v>
       </c>
       <c r="G16" t="n">
-        <v>158.945337194272</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H16" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I16" t="n">
         <v>93.84834815160703</v>
@@ -5460,28 +5460,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R16" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S16" t="n">
-        <v>2178.382964033126</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="T16" t="n">
-        <v>1958.704181747508</v>
+        <v>2266.023888849219</v>
       </c>
       <c r="U16" t="n">
-        <v>1669.627968062235</v>
+        <v>1976.947675163946</v>
       </c>
       <c r="V16" t="n">
-        <v>1414.943479856348</v>
+        <v>1722.263186958059</v>
       </c>
       <c r="W16" t="n">
-        <v>1125.526309819387</v>
+        <v>1432.846016921098</v>
       </c>
       <c r="X16" t="n">
-        <v>897.5367589213699</v>
+        <v>1204.856466023081</v>
       </c>
       <c r="Y16" t="n">
-        <v>676.7441797778398</v>
+        <v>984.0638868795508</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C17" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D17" t="n">
         <v>1591.032978284208</v>
@@ -5503,10 +5503,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F17" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G17" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H17" t="n">
         <v>93.84834815160703</v>
@@ -5515,28 +5515,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J17" t="n">
-        <v>424.14374500152</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K17" t="n">
-        <v>893.7741287892018</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L17" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M17" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N17" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O17" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P17" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q17" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R17" t="n">
         <v>4692.417407580351</v>
@@ -5548,19 +5548,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U17" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V17" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W17" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X17" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="18">
@@ -5600,16 +5600,16 @@
         <v>572.0050724668117</v>
       </c>
       <c r="L18" t="n">
-        <v>1062.737405310563</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="M18" t="n">
-        <v>1654.75575956269</v>
+        <v>1164.023426718939</v>
       </c>
       <c r="N18" t="n">
-        <v>2006.935879695572</v>
+        <v>1786.119390118276</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.812354695766</v>
+        <v>2332.99586511847</v>
       </c>
       <c r="P18" t="n">
         <v>2553.812354695766</v>
@@ -5664,7 +5664,7 @@
         <v>326.1595320196932</v>
       </c>
       <c r="G19" t="n">
-        <v>235.7210651131766</v>
+        <v>158.945337194272</v>
       </c>
       <c r="H19" t="n">
         <v>93.84834815160703</v>
@@ -5734,19 +5734,19 @@
         <v>1949.298676890958</v>
       </c>
       <c r="D20" t="n">
-        <v>1591.032978284207</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E20" t="n">
         <v>1205.244725685964</v>
       </c>
       <c r="F20" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G20" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H20" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I20" t="n">
         <v>93.84834815160703</v>
@@ -5761,19 +5761,19 @@
         <v>1462.494387944176</v>
       </c>
       <c r="M20" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N20" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O20" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P20" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q20" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R20" t="n">
         <v>4692.417407580351</v>
@@ -5834,22 +5834,22 @@
         <v>241.4963299034529</v>
       </c>
       <c r="K21" t="n">
-        <v>572.0050724668117</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="L21" t="n">
-        <v>1062.737405310563</v>
+        <v>732.2286627472042</v>
       </c>
       <c r="M21" t="n">
-        <v>1654.75575956269</v>
+        <v>1324.247016999332</v>
       </c>
       <c r="N21" t="n">
-        <v>1903.667562284444</v>
+        <v>1946.342980398668</v>
       </c>
       <c r="O21" t="n">
-        <v>1903.667562284444</v>
+        <v>2493.219455398862</v>
       </c>
       <c r="P21" t="n">
-        <v>2323.25108071052</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.812354695766</v>
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>654.5023284669179</v>
+        <v>635.6827849513467</v>
       </c>
       <c r="C22" t="n">
-        <v>485.566145539011</v>
+        <v>635.6827849513467</v>
       </c>
       <c r="D22" t="n">
         <v>485.566145539011</v>
@@ -5937,25 +5937,25 @@
         <v>2429.412499335695</v>
       </c>
       <c r="S22" t="n">
-        <v>2246.242309074625</v>
+        <v>2318.970034036873</v>
       </c>
       <c r="T22" t="n">
-        <v>2118.110795266826</v>
+        <v>2099.291251751255</v>
       </c>
       <c r="U22" t="n">
-        <v>1829.034581581553</v>
+        <v>1810.215038065981</v>
       </c>
       <c r="V22" t="n">
-        <v>1574.350093375666</v>
+        <v>1555.530549860094</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.932923338705</v>
+        <v>1266.113379823134</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.943372440688</v>
+        <v>1038.123828925116</v>
       </c>
       <c r="Y22" t="n">
-        <v>836.1507932971576</v>
+        <v>817.3312497815864</v>
       </c>
     </row>
     <row r="23">
@@ -5977,13 +5977,13 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F23" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G23" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H23" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I23" t="n">
         <v>93.84834815160703</v>
@@ -6071,22 +6071,22 @@
         <v>241.4963299034529</v>
       </c>
       <c r="K24" t="n">
-        <v>572.0050724668117</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="L24" t="n">
-        <v>1062.737405310563</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="M24" t="n">
-        <v>1654.75575956269</v>
+        <v>833.5146841555804</v>
       </c>
       <c r="N24" t="n">
-        <v>2276.851722962027</v>
+        <v>1455.610647554917</v>
       </c>
       <c r="O24" t="n">
-        <v>2276.851722962027</v>
+        <v>2002.487122555111</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.812354695766</v>
+        <v>2422.070640981186</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.812354695766</v>
@@ -6126,19 +6126,19 @@
         <v>495.0957149476001</v>
       </c>
       <c r="C25" t="n">
-        <v>326.1595320196932</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="D25" t="n">
-        <v>326.1595320196932</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="E25" t="n">
-        <v>326.1595320196932</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="F25" t="n">
-        <v>326.1595320196932</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G25" t="n">
-        <v>158.945337194272</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H25" t="n">
         <v>93.84834815160703</v>
@@ -6208,25 +6208,25 @@
         <v>1949.298676890959</v>
       </c>
       <c r="D26" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284209</v>
       </c>
       <c r="E26" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685965</v>
       </c>
       <c r="F26" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963571</v>
       </c>
       <c r="G26" t="n">
         <v>380.275713812763</v>
       </c>
       <c r="H26" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I26" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J26" t="n">
-        <v>373.3442236507199</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K26" t="n">
         <v>842.9746074384018</v>
@@ -6238,40 +6238,40 @@
         <v>2183.498949883214</v>
       </c>
       <c r="N26" t="n">
-        <v>2971.583449151119</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O26" t="n">
-        <v>3654.445485610257</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P26" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q26" t="n">
-        <v>4566.333620403612</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R26" t="n">
-        <v>4692.41740758035</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.950144347199</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.740996026518</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U26" t="n">
-        <v>4152.297666746067</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V26" t="n">
-        <v>3821.234779402496</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W26" t="n">
-        <v>3468.466124132382</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X26" t="n">
-        <v>3095.000365871302</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.86103389549</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="27">
@@ -6299,34 +6299,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H27" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I27" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J27" t="n">
-        <v>241.4963299034529</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K27" t="n">
-        <v>241.4963299034529</v>
+        <v>302.0892292003572</v>
       </c>
       <c r="L27" t="n">
-        <v>241.4963299034529</v>
+        <v>792.8215620441084</v>
       </c>
       <c r="M27" t="n">
-        <v>699.3689196510031</v>
+        <v>1384.839916296236</v>
       </c>
       <c r="N27" t="n">
-        <v>1321.464883050339</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O27" t="n">
-        <v>1868.341358050533</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P27" t="n">
-        <v>2287.924876476609</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q27" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R27" t="n">
         <v>2553.812354695766</v>
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>495.0957149475996</v>
+        <v>780.3691866193144</v>
       </c>
       <c r="C28" t="n">
-        <v>326.1595320196927</v>
+        <v>780.3691866193144</v>
       </c>
       <c r="D28" t="n">
-        <v>261.0625429770282</v>
+        <v>780.3691866193144</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0625429770282</v>
+        <v>632.4560930369213</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0625429770282</v>
+        <v>485.566145539011</v>
       </c>
       <c r="G28" t="n">
-        <v>93.84834815160701</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H28" t="n">
-        <v>93.84834815160701</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I28" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J28" t="n">
         <v>172.8304710411609</v>
       </c>
       <c r="K28" t="n">
-        <v>432.4591980117245</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L28" t="n">
-        <v>820.2210160948588</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M28" t="n">
         <v>1239.450608139318</v>
@@ -6399,16 +6399,16 @@
         <v>1654.146473931025</v>
       </c>
       <c r="O28" t="n">
-        <v>2021.168930946054</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P28" t="n">
-        <v>2311.699365782259</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q28" t="n">
-        <v>2429.412499335694</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R28" t="n">
-        <v>2361.553154294195</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S28" t="n">
         <v>2178.382964033126</v>
@@ -6417,19 +6417,19 @@
         <v>1958.704181747508</v>
       </c>
       <c r="U28" t="n">
-        <v>1669.627968062234</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V28" t="n">
-        <v>1414.943479856347</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W28" t="n">
         <v>1125.526309819387</v>
       </c>
       <c r="X28" t="n">
-        <v>897.5367589213695</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y28" t="n">
-        <v>676.7441797778393</v>
+        <v>897.5367589213699</v>
       </c>
     </row>
     <row r="29">
@@ -6451,19 +6451,19 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G29" t="n">
-        <v>380.2757138127627</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H29" t="n">
-        <v>93.84834815160684</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I29" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J29" t="n">
-        <v>373.3442236507199</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K29" t="n">
         <v>842.9746074384018</v>
@@ -6487,10 +6487,10 @@
         <v>4515.534099052813</v>
       </c>
       <c r="R29" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T29" t="n">
         <v>4405.740996026519</v>
@@ -6536,28 +6536,28 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H30" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I30" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J30" t="n">
-        <v>241.4963299034529</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K30" t="n">
-        <v>241.4963299034529</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L30" t="n">
-        <v>373.2380436180325</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="M30" t="n">
-        <v>965.2563978701601</v>
+        <v>1164.023426718939</v>
       </c>
       <c r="N30" t="n">
-        <v>1587.352361269496</v>
+        <v>1786.119390118276</v>
       </c>
       <c r="O30" t="n">
-        <v>2134.22883626969</v>
+        <v>2332.99586511847</v>
       </c>
       <c r="P30" t="n">
         <v>2553.812354695766</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>495.0957149476001</v>
+        <v>562.9550599890988</v>
       </c>
       <c r="C31" t="n">
-        <v>495.0957149476001</v>
+        <v>394.0188770611919</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9790755352643</v>
+        <v>388.6513892319105</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0625429770282</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0625429770282</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="G31" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H31" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I31" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J31" t="n">
         <v>172.8304710411609</v>
@@ -6645,28 +6645,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R31" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S31" t="n">
-        <v>2178.382964033126</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T31" t="n">
-        <v>1958.704181747508</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U31" t="n">
-        <v>1669.627968062235</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V31" t="n">
-        <v>1414.943479856348</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W31" t="n">
-        <v>1125.526309819387</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X31" t="n">
-        <v>897.5367589213699</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="Y31" t="n">
-        <v>676.7441797778398</v>
+        <v>744.6035248193385</v>
       </c>
     </row>
     <row r="32">
@@ -6782,19 +6782,19 @@
         <v>241.4963299034529</v>
       </c>
       <c r="K33" t="n">
-        <v>572.0050724668117</v>
+        <v>302.0892292003572</v>
       </c>
       <c r="L33" t="n">
-        <v>1062.737405310563</v>
+        <v>792.8215620441084</v>
       </c>
       <c r="M33" t="n">
-        <v>1587.352361269496</v>
+        <v>1384.839916296236</v>
       </c>
       <c r="N33" t="n">
-        <v>1587.352361269496</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O33" t="n">
-        <v>2134.22883626969</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P33" t="n">
         <v>2553.812354695766</v>
@@ -6837,19 +6837,19 @@
         <v>495.0957149476001</v>
       </c>
       <c r="C34" t="n">
-        <v>326.1595320196932</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="D34" t="n">
-        <v>326.1595320196932</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="E34" t="n">
-        <v>326.1595320196932</v>
+        <v>347.182621365207</v>
       </c>
       <c r="F34" t="n">
-        <v>326.1595320196932</v>
+        <v>200.2926738672966</v>
       </c>
       <c r="G34" t="n">
-        <v>158.945337194272</v>
+        <v>200.2926738672966</v>
       </c>
       <c r="H34" t="n">
         <v>93.84834815160703</v>
@@ -6916,7 +6916,7 @@
         <v>2318.261193831369</v>
       </c>
       <c r="C35" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D35" t="n">
         <v>1591.032978284208</v>
@@ -6925,19 +6925,19 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G35" t="n">
-        <v>380.2757138127629</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H35" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I35" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J35" t="n">
-        <v>373.3442236507199</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K35" t="n">
         <v>842.9746074384018</v>
@@ -6961,10 +6961,10 @@
         <v>4515.534099052813</v>
       </c>
       <c r="R35" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T35" t="n">
         <v>4405.740996026519</v>
@@ -7010,28 +7010,28 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H36" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I36" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J36" t="n">
-        <v>241.4963299034529</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K36" t="n">
-        <v>504.6016741736174</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L36" t="n">
-        <v>995.3340070173687</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M36" t="n">
-        <v>1587.352361269496</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N36" t="n">
-        <v>1587.352361269496</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="O36" t="n">
-        <v>2134.22883626969</v>
+        <v>2201.632234562885</v>
       </c>
       <c r="P36" t="n">
         <v>2553.812354695766</v>
@@ -7074,25 +7074,25 @@
         <v>495.0957149476001</v>
       </c>
       <c r="C37" t="n">
-        <v>495.0957149476001</v>
+        <v>388.6513892319105</v>
       </c>
       <c r="D37" t="n">
-        <v>495.0957149476001</v>
+        <v>388.6513892319105</v>
       </c>
       <c r="E37" t="n">
-        <v>495.0957149476001</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F37" t="n">
-        <v>402.9352599385978</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="G37" t="n">
-        <v>235.7210651131766</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H37" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I37" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J37" t="n">
         <v>172.8304710411609</v>
@@ -7150,58 +7150,58 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C38" t="n">
         <v>1949.298676890959</v>
       </c>
       <c r="D38" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284209</v>
       </c>
       <c r="E38" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685965</v>
       </c>
       <c r="F38" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963571</v>
       </c>
       <c r="G38" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127635</v>
       </c>
       <c r="H38" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I38" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J38" t="n">
-        <v>424.14374500152</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K38" t="n">
-        <v>893.7741287892018</v>
+        <v>893.7741287892027</v>
       </c>
       <c r="L38" t="n">
-        <v>1513.293909294976</v>
+        <v>1513.293909294977</v>
       </c>
       <c r="M38" t="n">
-        <v>2234.298471234014</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N38" t="n">
-        <v>2971.58344915112</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O38" t="n">
-        <v>3654.445485610258</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P38" t="n">
-        <v>4202.751434297606</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q38" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R38" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T38" t="n">
         <v>4405.740996026519</v>
@@ -7210,7 +7210,7 @@
         <v>4152.297666746069</v>
       </c>
       <c r="V38" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W38" t="n">
         <v>3468.466124132384</v>
@@ -7219,7 +7219,7 @@
         <v>3095.000365871304</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="39">
@@ -7247,31 +7247,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H39" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I39" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J39" t="n">
-        <v>241.4963299034529</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K39" t="n">
-        <v>241.4963299034529</v>
+        <v>429.3821857744755</v>
       </c>
       <c r="L39" t="n">
-        <v>241.4963299034529</v>
+        <v>920.1145186182267</v>
       </c>
       <c r="M39" t="n">
-        <v>734.6951238849133</v>
+        <v>1512.132872870354</v>
       </c>
       <c r="N39" t="n">
-        <v>1356.791087284249</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="O39" t="n">
-        <v>1903.667562284444</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P39" t="n">
-        <v>2323.25108071052</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.812354695766</v>
@@ -7320,16 +7320,16 @@
         <v>326.1595320196932</v>
       </c>
       <c r="F40" t="n">
-        <v>179.2695845217828</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="G40" t="n">
-        <v>93.84834815160703</v>
+        <v>158.945337194272</v>
       </c>
       <c r="H40" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I40" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J40" t="n">
         <v>172.8304710411609</v>
@@ -7399,46 +7399,46 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F41" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G41" t="n">
-        <v>380.2757138127627</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H41" t="n">
-        <v>93.84834815160684</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I41" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J41" t="n">
-        <v>373.3442236507199</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K41" t="n">
         <v>842.9746074384018</v>
       </c>
       <c r="L41" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M41" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N41" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O41" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P41" t="n">
-        <v>4202.751434297606</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q41" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R41" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T41" t="n">
         <v>4405.740996026519</v>
@@ -7484,31 +7484,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H42" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I42" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J42" t="n">
-        <v>241.4963299034529</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K42" t="n">
-        <v>302.0892292003572</v>
+        <v>241.496329903453</v>
       </c>
       <c r="L42" t="n">
-        <v>792.8215620441084</v>
+        <v>241.496329903453</v>
       </c>
       <c r="M42" t="n">
-        <v>1384.839916296236</v>
+        <v>734.6951238849133</v>
       </c>
       <c r="N42" t="n">
-        <v>2006.935879695572</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.812354695766</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.812354695766</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>562.9550599890988</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C43" t="n">
-        <v>394.0188770611919</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6513892319105</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7382956495174</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="F43" t="n">
-        <v>93.84834815160703</v>
+        <v>485.566145539011</v>
       </c>
       <c r="G43" t="n">
-        <v>93.84834815160703</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H43" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I43" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J43" t="n">
         <v>172.8304710411609</v>
@@ -7593,28 +7593,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R43" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S43" t="n">
-        <v>2246.242309074625</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T43" t="n">
-        <v>2026.563526789007</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U43" t="n">
-        <v>1737.487313103734</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V43" t="n">
-        <v>1482.802824897847</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W43" t="n">
-        <v>1193.385654860886</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X43" t="n">
-        <v>965.3961039628687</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y43" t="n">
-        <v>744.6035248193385</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="44">
@@ -7730,22 +7730,22 @@
         <v>241.4963299034529</v>
       </c>
       <c r="K45" t="n">
-        <v>572.0050724668117</v>
+        <v>302.0892292003572</v>
       </c>
       <c r="L45" t="n">
-        <v>1062.737405310563</v>
+        <v>792.8215620441084</v>
       </c>
       <c r="M45" t="n">
-        <v>1356.791087284249</v>
+        <v>1384.839916296236</v>
       </c>
       <c r="N45" t="n">
-        <v>1356.791087284249</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O45" t="n">
-        <v>1903.667562284444</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P45" t="n">
-        <v>2323.25108071052</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.812354695766</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>562.9550599890988</v>
+        <v>784.5128849845607</v>
       </c>
       <c r="C46" t="n">
-        <v>394.0188770611919</v>
+        <v>615.5767020566539</v>
       </c>
       <c r="D46" t="n">
-        <v>243.9022376488562</v>
+        <v>465.4600626443181</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7382956495174</v>
+        <v>317.546969061925</v>
       </c>
       <c r="F46" t="n">
-        <v>93.84834815160703</v>
+        <v>170.6570215640146</v>
       </c>
       <c r="G46" t="n">
         <v>93.84834815160703</v>
@@ -7830,28 +7830,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R46" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S46" t="n">
-        <v>2246.242309074625</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T46" t="n">
-        <v>2026.563526789007</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U46" t="n">
-        <v>1737.487313103734</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V46" t="n">
-        <v>1482.802824897847</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W46" t="n">
-        <v>1193.385654860886</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="X46" t="n">
-        <v>965.3961039628687</v>
+        <v>1186.953928958331</v>
       </c>
       <c r="Y46" t="n">
-        <v>744.6035248193385</v>
+        <v>966.1613498148005</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>51.31264782909113</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8935,13 +8935,13 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>51.31264782909102</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>51.31264782909113</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
         <v>51.31264782909091</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>51.31264782909102</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9886,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>51.31264782909011</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>51.31264782909182</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>51.31264782909091</v>
+        <v>51.31264782909182</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>51.31264782909091</v>
+        <v>51.31264782909182</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>51.31264782909176</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11077,7 +11077,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>51.31264782909216</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -23427,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>50.47721991512373</v>
+        <v>51.7390113895853</v>
       </c>
       <c r="I13" t="n">
         <v>81.80457674440903</v>
@@ -23466,16 +23466,16 @@
         <v>67.18075159108356</v>
       </c>
       <c r="S13" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>76.00797063971555</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>55.72727008115106</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23904,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>76.00797063971552</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>76.00797063971555</v>
       </c>
       <c r="I19" t="n">
         <v>81.80457674440903</v>
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24177,10 +24177,10 @@
         <v>67.18075159108356</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>72.00044771262534</v>
       </c>
       <c r="T22" t="n">
-        <v>90.63179579304089</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>57.37662255930007</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>76.00797063971555</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.80457674440903</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>63.83608360290232</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>84.16945386597443</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24840,19 +24840,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>143.3016600672238</v>
       </c>
       <c r="E31" t="n">
-        <v>63.35659541391539</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H31" t="n">
         <v>140.4539897919539</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25077,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H34" t="n">
-        <v>76.00797063971555</v>
+        <v>35.07410733342124</v>
       </c>
       <c r="I34" t="n">
         <v>81.80457674440903</v>
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>61.86693864009517</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>54.18219756401896</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
         <v>81.80457674440903</v>
@@ -25560,13 +25560,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>80.97502887069288</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.4539897919539</v>
+        <v>76.00797063971557</v>
       </c>
       <c r="I40" t="n">
         <v>81.80457674440903</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>143.3016600672238</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>135.986774308428</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26031,13 +26031,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>143.3016600672238</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5420528771669</v>
+        <v>89.50146619888341</v>
       </c>
       <c r="H46" t="n">
         <v>140.4539897919539</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>649618.7185000008</v>
+        <v>649618.7185000009</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>649618.7185000008</v>
+        <v>649618.7185000009</v>
       </c>
     </row>
     <row r="9">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710692</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="D2" t="n">
         <v>779989.6813710689</v>
       </c>
       <c r="E2" t="n">
-        <v>766348.8282626315</v>
+        <v>766348.8282626314</v>
       </c>
       <c r="F2" t="n">
         <v>766348.8282626315</v>
       </c>
       <c r="G2" t="n">
+        <v>766348.8282626315</v>
+      </c>
+      <c r="H2" t="n">
+        <v>766348.8282626315</v>
+      </c>
+      <c r="I2" t="n">
+        <v>766348.8282626314</v>
+      </c>
+      <c r="J2" t="n">
         <v>766348.8282626317</v>
       </c>
-      <c r="H2" t="n">
-        <v>766348.8282626312</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>766348.8282626317</v>
+      </c>
+      <c r="L2" t="n">
+        <v>766348.8282626315</v>
+      </c>
+      <c r="M2" t="n">
+        <v>766348.8282626317</v>
+      </c>
+      <c r="N2" t="n">
+        <v>766348.8282626318</v>
+      </c>
+      <c r="O2" t="n">
         <v>766348.8282626313</v>
       </c>
-      <c r="J2" t="n">
-        <v>766348.8282626315</v>
-      </c>
-      <c r="K2" t="n">
-        <v>766348.8282626315</v>
-      </c>
-      <c r="L2" t="n">
-        <v>766348.8282626313</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>766348.8282626314</v>
-      </c>
-      <c r="N2" t="n">
-        <v>766348.8282626314</v>
-      </c>
-      <c r="O2" t="n">
-        <v>766348.8282626314</v>
-      </c>
-      <c r="P2" t="n">
-        <v>766348.8282626313</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>936509.6654545121</v>
+        <v>936509.6654545122</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124307.2113901372</v>
+        <v>124307.2113901373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>5069.915760662919</v>
+        <v>5069.915760662916</v>
       </c>
       <c r="F4" t="n">
-        <v>5069.915760662969</v>
+        <v>5069.915760662967</v>
       </c>
       <c r="G4" t="n">
-        <v>5069.915760662915</v>
+        <v>5069.915760662967</v>
       </c>
       <c r="H4" t="n">
-        <v>5069.915760662966</v>
+        <v>5069.915760662916</v>
       </c>
       <c r="I4" t="n">
         <v>5069.915760662916</v>
       </c>
       <c r="J4" t="n">
-        <v>5069.915760662945</v>
+        <v>5069.915760662926</v>
       </c>
       <c r="K4" t="n">
-        <v>5069.915760662916</v>
+        <v>5069.915760662927</v>
       </c>
       <c r="L4" t="n">
         <v>5069.915760662916</v>
       </c>
       <c r="M4" t="n">
-        <v>5069.915760662967</v>
+        <v>5069.915760662927</v>
       </c>
       <c r="N4" t="n">
-        <v>5069.915760662916</v>
+        <v>5069.915760662926</v>
       </c>
       <c r="O4" t="n">
-        <v>5069.915760662916</v>
+        <v>5069.915760662931</v>
       </c>
       <c r="P4" t="n">
-        <v>5069.915760662918</v>
+        <v>5069.915760662917</v>
       </c>
     </row>
     <row r="5">
@@ -26493,22 +26493,22 @@
         <v>100930.0394572385</v>
       </c>
       <c r="J5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="K5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="L5" t="n">
         <v>100930.0394572385</v>
       </c>
       <c r="M5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="N5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="O5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="P5" t="n">
         <v>100930.0394572385</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-85043.87229931456</v>
+        <v>-85043.8722993148</v>
       </c>
       <c r="C6" t="n">
-        <v>504924.00691523</v>
+        <v>504924.0069152297</v>
       </c>
       <c r="D6" t="n">
         <v>504924.0069152297</v>
       </c>
       <c r="E6" t="n">
-        <v>-276519.7622284252</v>
+        <v>-276196.6893916466</v>
       </c>
       <c r="F6" t="n">
-        <v>659989.903226087</v>
+        <v>660312.9760628657</v>
       </c>
       <c r="G6" t="n">
-        <v>659989.9032260872</v>
+        <v>660312.9760628657</v>
       </c>
       <c r="H6" t="n">
-        <v>659989.9032260866</v>
+        <v>660312.9760628658</v>
       </c>
       <c r="I6" t="n">
-        <v>659989.9032260869</v>
+        <v>660312.9760628657</v>
       </c>
       <c r="J6" t="n">
-        <v>483566.684033494</v>
+        <v>483889.7568702729</v>
       </c>
       <c r="K6" t="n">
-        <v>659989.9032260871</v>
+        <v>660312.9760628659</v>
       </c>
       <c r="L6" t="n">
-        <v>659989.9032260869</v>
+        <v>660312.9760628658</v>
       </c>
       <c r="M6" t="n">
-        <v>535682.6918359497</v>
+        <v>536005.7646727287</v>
       </c>
       <c r="N6" t="n">
-        <v>659989.903226087</v>
+        <v>660312.976062866</v>
       </c>
       <c r="O6" t="n">
-        <v>659989.903226087</v>
+        <v>660312.9760628656</v>
       </c>
       <c r="P6" t="n">
-        <v>659989.9032260869</v>
+        <v>660312.9760628657</v>
       </c>
     </row>
   </sheetData>
@@ -26709,10 +26709,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>980.2973844992989</v>
+        <v>980.297384499299</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405322</v>
+        <v>498.8170791405324</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27384,16 +27384,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>53.3000871031237</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>147.8252981211501</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890127</v>
+        <v>128.0571403890124</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27621,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>247.9329864305857</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>32.61508187866912</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>138.7994718469074</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>4.167450853507134</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>98.95375469339433</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>272.0180034264159</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>107.5829646831825</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28070,13 +28070,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>171.2488638306984</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28335,7 +28335,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28809,7 +28809,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>8.682195192673605e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29988,7 +29988,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31843,10 +31843,10 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>270.9138770698939</v>
       </c>
       <c r="L12" t="n">
-        <v>634.2436048745724</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>740.1323715504301</v>
@@ -31858,7 +31858,7 @@
         <v>694.9967242426204</v>
       </c>
       <c r="P12" t="n">
-        <v>195.1793561990821</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32080,7 +32080,7 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>634.2436048745724</v>
@@ -32089,13 +32089,13 @@
         <v>740.1323715504301</v>
       </c>
       <c r="N15" t="n">
-        <v>487.0792071670522</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O15" t="n">
         <v>694.9967242426204</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>195.1793561990821</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32320,19 +32320,19 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
-        <v>634.2436048745724</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>740.1323715504301</v>
       </c>
       <c r="N18" t="n">
-        <v>487.0792071670522</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O18" t="n">
         <v>694.9967242426204</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>357.0213665833166</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32554,7 +32554,7 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K21" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>634.2436048745724</v>
@@ -32563,16 +32563,16 @@
         <v>740.1323715504301</v>
       </c>
       <c r="N21" t="n">
-        <v>382.7677754386397</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P21" t="n">
-        <v>557.7961431982453</v>
+        <v>195.1793561990821</v>
       </c>
       <c r="Q21" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32791,10 +32791,10 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K24" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>634.2436048745724</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>740.1323715504301</v>
@@ -32803,13 +32803,13 @@
         <v>759.7214730927637</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P24" t="n">
-        <v>413.7326212867947</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>273.0542121815567</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33028,13 +33028,13 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>199.0463877591107</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M27" t="n">
-        <v>604.6315993235842</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N27" t="n">
         <v>759.7214730927637</v>
@@ -33043,13 +33043,13 @@
         <v>694.9967242426204</v>
       </c>
       <c r="P27" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>181.3625385436713</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.2575834086216</v>
@@ -33265,10 +33265,10 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L30" t="n">
-        <v>271.6268178754091</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>740.1323715504301</v>
@@ -33280,7 +33280,7 @@
         <v>694.9967242426204</v>
       </c>
       <c r="P30" t="n">
-        <v>557.7961431982453</v>
+        <v>357.0213665833166</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33502,22 +33502,22 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K33" t="n">
-        <v>471.6886536848224</v>
+        <v>199.0463877591108</v>
       </c>
       <c r="L33" t="n">
         <v>634.2436048745724</v>
       </c>
       <c r="M33" t="n">
-        <v>672.0481308502337</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O33" t="n">
         <v>694.9967242426204</v>
       </c>
       <c r="P33" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33739,7 +33739,7 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K36" t="n">
-        <v>403.6044129846262</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L36" t="n">
         <v>634.2436048745724</v>
@@ -33754,7 +33754,7 @@
         <v>694.9967242426204</v>
       </c>
       <c r="P36" t="n">
-        <v>557.7961431982453</v>
+        <v>489.7119024980491</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33976,25 +33976,25 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>327.6251317733717</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M39" t="n">
-        <v>640.3146339032915</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N39" t="n">
         <v>759.7214730927637</v>
       </c>
       <c r="O39" t="n">
-        <v>694.9967242426204</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>557.7961431982453</v>
       </c>
       <c r="Q39" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34213,13 +34213,13 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K42" t="n">
-        <v>199.0463877591108</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>634.2436048745724</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>740.1323715504301</v>
+        <v>640.3146339032913</v>
       </c>
       <c r="N42" t="n">
         <v>759.7214730927637</v>
@@ -34228,10 +34228,10 @@
         <v>694.9967242426204</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34450,25 +34450,25 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K45" t="n">
-        <v>471.6886536848224</v>
+        <v>199.0463877591108</v>
       </c>
       <c r="L45" t="n">
         <v>634.2436048745724</v>
       </c>
       <c r="M45" t="n">
-        <v>439.1579551075602</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O45" t="n">
         <v>694.9967242426204</v>
       </c>
       <c r="P45" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,10 +35263,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35424,7 +35424,7 @@
         <v>744.7323009263698</v>
       </c>
       <c r="O11" t="n">
-        <v>741.0722806160995</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P11" t="n">
         <v>553.8443926134828</v>
@@ -35433,7 +35433,7 @@
         <v>367.2547334404111</v>
       </c>
       <c r="R11" t="n">
-        <v>127.3573607845841</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,10 +35491,10 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>133.0724380955349</v>
       </c>
       <c r="L12" t="n">
-        <v>495.6892250946982</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>597.9983376284117</v>
@@ -35506,7 +35506,7 @@
         <v>552.400479798176</v>
       </c>
       <c r="P12" t="n">
-        <v>61.20494878475183</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35655,13 +35655,13 @@
         <v>625.777556066439</v>
       </c>
       <c r="M14" t="n">
-        <v>779.6000841311491</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N14" t="n">
         <v>744.7323009263698</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870084</v>
+        <v>741.0722806160995</v>
       </c>
       <c r="P14" t="n">
         <v>553.8443926134828</v>
@@ -35728,7 +35728,7 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>495.6892250946982</v>
@@ -35737,13 +35737,13 @@
         <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>355.7374950837189</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O15" t="n">
         <v>552.400479798176</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>61.20494878475183</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>333.631713989811</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K17" t="n">
         <v>474.3741250380625</v>
@@ -35907,7 +35907,7 @@
         <v>367.2547334404111</v>
       </c>
       <c r="R17" t="n">
-        <v>127.3573607845841</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,19 +35968,19 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
-        <v>495.6892250946982</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>597.9983376284117</v>
       </c>
       <c r="N18" t="n">
-        <v>355.7374950837189</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O18" t="n">
         <v>552.400479798176</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>223.0469591689864</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>625.777556066439</v>
       </c>
       <c r="M20" t="n">
-        <v>779.6000841311491</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N20" t="n">
         <v>744.7323009263698</v>
@@ -36144,7 +36144,7 @@
         <v>367.2547334404111</v>
       </c>
       <c r="R20" t="n">
-        <v>127.3573607845841</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K21" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>495.6892250946982</v>
@@ -36211,16 +36211,16 @@
         <v>597.9983376284117</v>
       </c>
       <c r="N21" t="n">
-        <v>251.4260633553063</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P21" t="n">
-        <v>423.8217357839151</v>
+        <v>61.20494878475183</v>
       </c>
       <c r="Q21" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,10 +36439,10 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K24" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>495.6892250946982</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>597.9983376284117</v>
@@ -36451,13 +36451,13 @@
         <v>628.3797610094305</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P24" t="n">
-        <v>279.7582138724644</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>133.0724380955352</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36606,7 +36606,7 @@
         <v>728.287436302058</v>
       </c>
       <c r="N26" t="n">
-        <v>796.0449487554599</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O26" t="n">
         <v>689.7596327870084</v>
@@ -36618,7 +36618,7 @@
         <v>367.2547334404111</v>
       </c>
       <c r="R26" t="n">
-        <v>127.3573607845841</v>
+        <v>178.6700086136759</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,13 +36676,13 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>61.20494878475174</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M27" t="n">
-        <v>462.4975654015659</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N27" t="n">
         <v>628.3797610094305</v>
@@ -36691,13 +36691,13 @@
         <v>552.400479798176</v>
       </c>
       <c r="P27" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>35.6830345797074</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>367.2547334404111</v>
       </c>
       <c r="R29" t="n">
-        <v>178.670008613675</v>
+        <v>178.6700086136759</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,10 +36913,10 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L30" t="n">
-        <v>133.0724380955349</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>597.9983376284117</v>
@@ -36928,7 +36928,7 @@
         <v>552.400479798176</v>
       </c>
       <c r="P30" t="n">
-        <v>423.8217357839151</v>
+        <v>223.0469591689864</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K33" t="n">
-        <v>333.8472147104634</v>
+        <v>61.20494878475177</v>
       </c>
       <c r="L33" t="n">
         <v>495.6892250946982</v>
       </c>
       <c r="M33" t="n">
-        <v>529.9140969282154</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O33" t="n">
         <v>552.400479798176</v>
       </c>
       <c r="P33" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>367.2547334404111</v>
       </c>
       <c r="R35" t="n">
-        <v>178.670008613675</v>
+        <v>178.6700086136759</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K36" t="n">
-        <v>265.7629740102672</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L36" t="n">
         <v>495.6892250946982</v>
@@ -37402,7 +37402,7 @@
         <v>552.400479798176</v>
       </c>
       <c r="P36" t="n">
-        <v>423.8217357839151</v>
+        <v>355.7374950837189</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37542,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>333.631713989811</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K38" t="n">
-        <v>474.3741250380625</v>
+        <v>525.6867728671542</v>
       </c>
       <c r="L38" t="n">
         <v>625.777556066439</v>
@@ -37624,25 +37624,25 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>189.7836927990127</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M39" t="n">
-        <v>498.1805999812731</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N39" t="n">
         <v>628.3797610094305</v>
       </c>
       <c r="O39" t="n">
-        <v>552.400479798176</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>423.8217357839151</v>
       </c>
       <c r="Q39" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>474.3741250380625</v>
       </c>
       <c r="L41" t="n">
-        <v>677.09020389553</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M41" t="n">
         <v>728.287436302058</v>
@@ -37797,7 +37797,7 @@
         <v>689.7596327870084</v>
       </c>
       <c r="P41" t="n">
-        <v>553.8443926134828</v>
+        <v>605.157040442575</v>
       </c>
       <c r="Q41" t="n">
         <v>367.2547334404111</v>
@@ -37861,13 +37861,13 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K42" t="n">
-        <v>61.20494878475177</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>495.6892250946982</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>597.9983376284117</v>
+        <v>498.180599981273</v>
       </c>
       <c r="N42" t="n">
         <v>628.3797610094305</v>
@@ -37876,10 +37876,10 @@
         <v>552.400479798176</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K45" t="n">
-        <v>333.8472147104634</v>
+        <v>61.20494878475177</v>
       </c>
       <c r="L45" t="n">
         <v>495.6892250946982</v>
       </c>
       <c r="M45" t="n">
-        <v>297.0239211855419</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O45" t="n">
         <v>552.400479798176</v>
       </c>
       <c r="P45" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
